--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_6_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_6_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>358580.7238069266</v>
+        <v>225294.2842271118</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1278033.348616487</v>
+        <v>1115626.196768434</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23525779.16017341</v>
+        <v>23388816.12081985</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5227212.279226902</v>
+        <v>5284668.462826725</v>
       </c>
     </row>
     <row r="11">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>13.18456318129113</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1414,16 +1414,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>14.96885011499901</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>14.96885011499901</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>14.96885011499901</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>13.18456318129113</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1448,73 +1448,73 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>13.18456318129113</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
         <v>14.96885011499901</v>
       </c>
-      <c r="C12" t="n">
-        <v>13.18456318129113</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
+      <c r="W12" t="n">
         <v>14.96885011499901</v>
       </c>
-      <c r="F12" t="n">
+      <c r="X12" t="n">
         <v>14.96885011499901</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>13.18456318129113</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,22 +1654,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>13.18456318129113</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
         <v>14.96885011499901</v>
-      </c>
-      <c r="T14" t="n">
-        <v>14.96885011499901</v>
-      </c>
-      <c r="U14" t="n">
-        <v>14.96885011499901</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1685,73 +1685,73 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>14.96885011499901</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
         <v>13.18456318129113</v>
       </c>
-      <c r="C15" t="n">
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
         <v>14.96885011499901</v>
       </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
+      <c r="X15" t="n">
         <v>14.96885011499901</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>14.96885011499901</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1846,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="E17" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>29.23886660620531</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="G17" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>25.75359370674562</v>
+        <v>39.95092127527401</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1925,16 +1925,16 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1967,19 +1967,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.5290045780086</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>3.224589128737035</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>39.95092127527401</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>39.95092127527401</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2137,16 +2137,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>29.23886660620531</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="V20" t="n">
-        <v>29.23886660620531</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="W20" t="n">
-        <v>29.23886660620531</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="X20" t="n">
-        <v>25.75359370674562</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>17.42191669726542</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,22 +2207,22 @@
         <v>22.52900457800858</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="T21" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>3.224589128737045</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="W21" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2320,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>60.32639016412938</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>60.32639016412938</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2365,19 +2365,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>66.68191730512689</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="U23" t="n">
-        <v>53.13548445656515</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>60.32639016412938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2411,10 +2411,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>30.60647987855655</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>60.32639016412938</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2441,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.52900457800858</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -2450,22 +2450,22 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>60.32639016412938</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>60.32639016412938</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>66.68191730512689</v>
       </c>
     </row>
     <row r="25">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>60.32639016412938</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>60.32639016412938</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2599,22 +2599,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="T26" t="n">
-        <v>53.13548445656515</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>60.32639016412938</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>74.17977014942207</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2678,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -2687,19 +2687,19 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>53.13548445656515</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>60.32639016412938</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="V27" t="n">
-        <v>60.32639016412938</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="W27" t="n">
-        <v>60.32639016412938</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>44.15291272711832</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>66.68191730512689</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2836,22 +2836,22 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>53.13548445656515</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32639016412938</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>60.32639016412938</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="V29" t="n">
-        <v>60.32639016412938</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2873,10 +2873,10 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>53.13548445656516</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>66.68191730512689</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2918,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2933,13 +2933,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>60.32639016412938</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>60.32639016412938</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>60.32639016412938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3034,22 +3034,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>60.32639016412938</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="F32" t="n">
-        <v>60.32639016412938</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="I32" t="n">
-        <v>60.32639016412938</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>53.13548445656515</v>
+        <v>66.68191730512689</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>75.70608231735568</v>
       </c>
     </row>
     <row r="33">
@@ -3116,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>60.32639016412938</v>
+        <v>44.15291272711832</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3152,22 +3152,22 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="T33" t="n">
-        <v>53.13548445656515</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="U33" t="n">
-        <v>60.32639016412938</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>60.32639016412938</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>45.35754004913036</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>39.95092127527401</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3283,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>63.94484694639318</v>
       </c>
       <c r="I35" t="n">
-        <v>45.35754004913036</v>
+        <v>56.32262119038312</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3310,10 +3310,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>63.94484694639318</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>63.94484694639318</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>45.35754004913036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3353,10 +3353,10 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>45.35754004913036</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>45.35754004913036</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3389,10 +3389,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R36" t="n">
-        <v>39.95092127527401</v>
+        <v>63.94484694639318</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3401,13 +3401,13 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>63.94484694639318</v>
       </c>
       <c r="V36" t="n">
-        <v>45.35754004913036</v>
+        <v>33.79361661237449</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>63.94484694639318</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>39.95092127527401</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3550,25 +3550,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>63.94484694639318</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>63.94484694639318</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>63.94484694639318</v>
       </c>
       <c r="U38" t="n">
-        <v>45.35754004913036</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>45.35754004913036</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>45.35754004913036</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>56.32262119038312</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3581,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>39.95092127527401</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>45.35754004913036</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3635,22 +3635,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>56.32262119038308</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>63.94484694639318</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>63.94484694639318</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>63.94484694639318</v>
       </c>
       <c r="X39" t="n">
-        <v>45.35754004913036</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>45.35754004913036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>27.38189074981951</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>29.5562630964002</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3784,31 +3784,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>31.08752355792407</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>33.55615701226183</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>33.55615701226183</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>33.55615701226183</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>31.08752355792407</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.08752355792407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>31.08752355792407</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3839,10 +3839,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>27.38189074981951</v>
+        <v>33.55615701226183</v>
       </c>
       <c r="J42" t="n">
-        <v>31.08752355792407</v>
+        <v>29.5562630964002</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3869,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>33.55615701226183</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>33.55615701226183</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3881,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>31.08752355792407</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>27.38189074981951</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>31.08752355792407</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -4021,16 +4021,16 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>33.55615701226183</v>
       </c>
       <c r="R44" t="n">
-        <v>31.08752355792407</v>
+        <v>33.55615701226183</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>33.55615701226183</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>29.5562630964002</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.08752355792407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.027258518391613</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4100,25 +4100,25 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>22.5290045780086</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>33.55615701226183</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>27.38189074981951</v>
+        <v>33.55615701226183</v>
       </c>
       <c r="U45" t="n">
-        <v>31.08752355792407</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>31.08752355792407</v>
+        <v>33.55615701226183</v>
       </c>
       <c r="W45" t="n">
-        <v>31.08752355792407</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.197508009199921</v>
+        <v>46.5576598728333</v>
       </c>
       <c r="C11" t="n">
-        <v>1.197508009199921</v>
+        <v>31.43760925162217</v>
       </c>
       <c r="D11" t="n">
-        <v>1.197508009199921</v>
+        <v>16.31755863041105</v>
       </c>
       <c r="E11" t="n">
         <v>1.197508009199921</v>
@@ -5047,46 +5047,46 @@
         <v>1.197508009199921</v>
       </c>
       <c r="L11" t="n">
-        <v>16.01666962304894</v>
+        <v>1.46342921211124</v>
       </c>
       <c r="M11" t="n">
-        <v>30.83583123689796</v>
+        <v>16.28259082596026</v>
       </c>
       <c r="N11" t="n">
-        <v>45.65499285074698</v>
+        <v>31.10175243980929</v>
       </c>
       <c r="O11" t="n">
-        <v>45.92091405365819</v>
+        <v>45.92091405365831</v>
       </c>
       <c r="P11" t="n">
-        <v>59.87540045999604</v>
+        <v>59.87540045999605</v>
       </c>
       <c r="Q11" t="n">
-        <v>44.75534983878492</v>
+        <v>59.87540045999605</v>
       </c>
       <c r="R11" t="n">
-        <v>29.6352992175738</v>
+        <v>59.87540045999605</v>
       </c>
       <c r="S11" t="n">
-        <v>14.51524859636268</v>
+        <v>59.87540045999605</v>
       </c>
       <c r="T11" t="n">
-        <v>1.197508009199921</v>
+        <v>59.87540045999605</v>
       </c>
       <c r="U11" t="n">
-        <v>1.197508009199921</v>
+        <v>59.87540045999605</v>
       </c>
       <c r="V11" t="n">
-        <v>1.197508009199921</v>
+        <v>59.87540045999605</v>
       </c>
       <c r="W11" t="n">
-        <v>1.197508009199921</v>
+        <v>59.87540045999605</v>
       </c>
       <c r="X11" t="n">
-        <v>1.197508009199921</v>
+        <v>59.87540045999605</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.197508009199921</v>
+        <v>59.87540045999605</v>
       </c>
     </row>
     <row r="12">
@@ -5096,16 +5096,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>44.75534983878492</v>
+        <v>14.51524859636267</v>
       </c>
       <c r="C12" t="n">
-        <v>31.43760925162216</v>
+        <v>14.51524859636267</v>
       </c>
       <c r="D12" t="n">
-        <v>31.43760925162216</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="E12" t="n">
-        <v>16.31755863041104</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="F12" t="n">
         <v>1.197508009199921</v>
@@ -5126,46 +5126,46 @@
         <v>1.197508009199921</v>
       </c>
       <c r="L12" t="n">
-        <v>15.417915618449</v>
+        <v>15.41791561844898</v>
       </c>
       <c r="M12" t="n">
-        <v>30.23707723229803</v>
+        <v>30.237077232298</v>
       </c>
       <c r="N12" t="n">
         <v>45.05623884614702</v>
       </c>
       <c r="O12" t="n">
-        <v>59.87540045999604</v>
+        <v>59.87540045999605</v>
       </c>
       <c r="P12" t="n">
-        <v>59.87540045999604</v>
+        <v>59.87540045999605</v>
       </c>
       <c r="Q12" t="n">
-        <v>59.87540045999604</v>
+        <v>59.87540045999605</v>
       </c>
       <c r="R12" t="n">
-        <v>59.87540045999604</v>
+        <v>59.87540045999605</v>
       </c>
       <c r="S12" t="n">
-        <v>59.87540045999604</v>
+        <v>59.87540045999605</v>
       </c>
       <c r="T12" t="n">
-        <v>59.87540045999604</v>
+        <v>59.87540045999605</v>
       </c>
       <c r="U12" t="n">
-        <v>59.87540045999604</v>
+        <v>59.87540045999605</v>
       </c>
       <c r="V12" t="n">
-        <v>59.87540045999604</v>
+        <v>44.75534983878492</v>
       </c>
       <c r="W12" t="n">
-        <v>59.87540045999604</v>
+        <v>29.6352992175738</v>
       </c>
       <c r="X12" t="n">
-        <v>59.87540045999604</v>
+        <v>14.51524859636267</v>
       </c>
       <c r="Y12" t="n">
-        <v>59.87540045999604</v>
+        <v>14.51524859636267</v>
       </c>
     </row>
     <row r="13">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.197508009199921</v>
+        <v>29.6352992175738</v>
       </c>
       <c r="C14" t="n">
-        <v>1.197508009199921</v>
+        <v>29.6352992175738</v>
       </c>
       <c r="D14" t="n">
-        <v>1.197508009199921</v>
+        <v>29.6352992175738</v>
       </c>
       <c r="E14" t="n">
-        <v>1.197508009199921</v>
+        <v>29.6352992175738</v>
       </c>
       <c r="F14" t="n">
-        <v>1.197508009199921</v>
+        <v>29.6352992175738</v>
       </c>
       <c r="G14" t="n">
-        <v>1.197508009199921</v>
+        <v>14.51524859636267</v>
       </c>
       <c r="H14" t="n">
         <v>1.197508009199921</v>
@@ -5284,46 +5284,46 @@
         <v>1.197508009199921</v>
       </c>
       <c r="L14" t="n">
-        <v>16.01666962304894</v>
+        <v>1.46342921211124</v>
       </c>
       <c r="M14" t="n">
-        <v>30.83583123689796</v>
+        <v>16.28259082596026</v>
       </c>
       <c r="N14" t="n">
-        <v>45.65499285074698</v>
+        <v>31.10175243980929</v>
       </c>
       <c r="O14" t="n">
-        <v>45.92091405365824</v>
+        <v>45.92091405365831</v>
       </c>
       <c r="P14" t="n">
-        <v>59.87540045999604</v>
+        <v>59.87540045999605</v>
       </c>
       <c r="Q14" t="n">
-        <v>59.87540045999604</v>
+        <v>59.87540045999605</v>
       </c>
       <c r="R14" t="n">
-        <v>46.55765987283328</v>
+        <v>59.87540045999605</v>
       </c>
       <c r="S14" t="n">
-        <v>31.43760925162216</v>
+        <v>59.87540045999605</v>
       </c>
       <c r="T14" t="n">
-        <v>16.31755863041104</v>
+        <v>59.87540045999605</v>
       </c>
       <c r="U14" t="n">
-        <v>1.197508009199921</v>
+        <v>59.87540045999605</v>
       </c>
       <c r="V14" t="n">
-        <v>1.197508009199921</v>
+        <v>59.87540045999605</v>
       </c>
       <c r="W14" t="n">
-        <v>1.197508009199921</v>
+        <v>44.75534983878492</v>
       </c>
       <c r="X14" t="n">
-        <v>1.197508009199921</v>
+        <v>44.75534983878492</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.197508009199921</v>
+        <v>44.75534983878492</v>
       </c>
     </row>
     <row r="15">
@@ -5333,13 +5333,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>31.43760925162216</v>
+        <v>16.31755863041105</v>
       </c>
       <c r="C15" t="n">
-        <v>16.31755863041104</v>
+        <v>16.31755863041105</v>
       </c>
       <c r="D15" t="n">
-        <v>16.31755863041104</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="E15" t="n">
         <v>1.197508009199921</v>
@@ -5363,7 +5363,7 @@
         <v>1.197508009199921</v>
       </c>
       <c r="L15" t="n">
-        <v>15.41791561844897</v>
+        <v>15.41791561844898</v>
       </c>
       <c r="M15" t="n">
         <v>30.237077232298</v>
@@ -5372,37 +5372,37 @@
         <v>45.05623884614702</v>
       </c>
       <c r="O15" t="n">
-        <v>59.87540045999604</v>
+        <v>59.87540045999605</v>
       </c>
       <c r="P15" t="n">
-        <v>59.87540045999604</v>
+        <v>59.87540045999605</v>
       </c>
       <c r="Q15" t="n">
-        <v>44.75534983878492</v>
+        <v>59.87540045999605</v>
       </c>
       <c r="R15" t="n">
-        <v>44.75534983878492</v>
+        <v>59.87540045999605</v>
       </c>
       <c r="S15" t="n">
-        <v>44.75534983878492</v>
+        <v>59.87540045999605</v>
       </c>
       <c r="T15" t="n">
-        <v>44.75534983878492</v>
+        <v>59.87540045999605</v>
       </c>
       <c r="U15" t="n">
-        <v>44.75534983878492</v>
+        <v>46.5576598728333</v>
       </c>
       <c r="V15" t="n">
-        <v>44.75534983878492</v>
+        <v>46.5576598728333</v>
       </c>
       <c r="W15" t="n">
-        <v>44.75534983878492</v>
+        <v>31.43760925162217</v>
       </c>
       <c r="X15" t="n">
-        <v>44.75534983878492</v>
+        <v>16.31755863041105</v>
       </c>
       <c r="Y15" t="n">
-        <v>44.75534983878492</v>
+        <v>16.31755863041105</v>
       </c>
     </row>
     <row r="16">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>116.9554664248212</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="C17" t="n">
-        <v>116.9554664248212</v>
+        <v>135.6144631771978</v>
       </c>
       <c r="D17" t="n">
-        <v>116.9554664248212</v>
+        <v>89.79876615787424</v>
       </c>
       <c r="E17" t="n">
-        <v>87.42125773168455</v>
+        <v>89.79876615787424</v>
       </c>
       <c r="F17" t="n">
-        <v>57.88704903854787</v>
+        <v>43.98306913855064</v>
       </c>
       <c r="G17" t="n">
-        <v>28.3528403454112</v>
+        <v>43.98306913855064</v>
       </c>
       <c r="H17" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="I17" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="J17" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="K17" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="L17" t="n">
-        <v>31.28558726863968</v>
+        <v>48.53256785256949</v>
       </c>
       <c r="M17" t="n">
-        <v>60.23206520878293</v>
+        <v>93.43653250120855</v>
       </c>
       <c r="N17" t="n">
-        <v>89.17854314892618</v>
+        <v>138.3404971498476</v>
       </c>
       <c r="O17" t="n">
-        <v>103.0009800184834</v>
+        <v>167.4756737901836</v>
       </c>
       <c r="P17" t="n">
-        <v>116.9554664248212</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="Q17" t="n">
-        <v>116.9554664248212</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="R17" t="n">
-        <v>116.9554664248212</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="S17" t="n">
-        <v>116.9554664248212</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="T17" t="n">
-        <v>116.9554664248212</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="U17" t="n">
-        <v>116.9554664248212</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="V17" t="n">
-        <v>116.9554664248212</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="W17" t="n">
-        <v>116.9554664248212</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="X17" t="n">
-        <v>116.9554664248212</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="Y17" t="n">
-        <v>116.9554664248212</v>
+        <v>181.4301601965215</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>90.94173540790645</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="C18" t="n">
-        <v>61.40752671476977</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="D18" t="n">
-        <v>61.40752671476977</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="E18" t="n">
-        <v>31.8733180216331</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="F18" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="G18" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="H18" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="I18" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="J18" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="K18" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="L18" t="n">
-        <v>16.55951693774548</v>
+        <v>17.84901081317951</v>
       </c>
       <c r="M18" t="n">
-        <v>45.50599487788873</v>
+        <v>62.75297546181857</v>
       </c>
       <c r="N18" t="n">
-        <v>74.45247281803199</v>
+        <v>107.6569401104576</v>
       </c>
       <c r="O18" t="n">
-        <v>103.3989507581752</v>
+        <v>136.6034180506009</v>
       </c>
       <c r="P18" t="n">
-        <v>116.9554664248212</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="Q18" t="n">
-        <v>94.19889614400446</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="R18" t="n">
-        <v>90.94173540790645</v>
+        <v>135.6144631771978</v>
       </c>
       <c r="S18" t="n">
-        <v>90.94173540790645</v>
+        <v>89.79876615787424</v>
       </c>
       <c r="T18" t="n">
-        <v>90.94173540790645</v>
+        <v>43.98306913855064</v>
       </c>
       <c r="U18" t="n">
-        <v>90.94173540790645</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="V18" t="n">
-        <v>90.94173540790645</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="W18" t="n">
-        <v>90.94173540790645</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="X18" t="n">
-        <v>90.94173540790645</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="Y18" t="n">
-        <v>90.94173540790645</v>
+        <v>3.628603203930429</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="C19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="D19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="E19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="F19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="G19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="H19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="I19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="J19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="K19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="L19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="M19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="N19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="O19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="P19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="R19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="S19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="T19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="U19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="V19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="W19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="X19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="Y19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.339109328496424</v>
+        <v>43.98306913855064</v>
       </c>
       <c r="C20" t="n">
-        <v>2.339109328496424</v>
+        <v>43.98306913855064</v>
       </c>
       <c r="D20" t="n">
-        <v>2.339109328496424</v>
+        <v>43.98306913855064</v>
       </c>
       <c r="E20" t="n">
-        <v>2.339109328496424</v>
+        <v>43.98306913855064</v>
       </c>
       <c r="F20" t="n">
-        <v>2.339109328496424</v>
+        <v>43.98306913855064</v>
       </c>
       <c r="G20" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="H20" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="I20" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="J20" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="K20" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="L20" t="n">
-        <v>31.28558726863968</v>
+        <v>48.53256785256949</v>
       </c>
       <c r="M20" t="n">
-        <v>45.10802413819685</v>
+        <v>93.43653250120855</v>
       </c>
       <c r="N20" t="n">
-        <v>74.05450207834011</v>
+        <v>138.3404971498476</v>
       </c>
       <c r="O20" t="n">
-        <v>103.0009800184834</v>
+        <v>167.4756737901836</v>
       </c>
       <c r="P20" t="n">
-        <v>116.9554664248212</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="Q20" t="n">
-        <v>116.9554664248212</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="R20" t="n">
-        <v>116.9554664248212</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="S20" t="n">
-        <v>116.9554664248212</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="T20" t="n">
-        <v>116.9554664248212</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="U20" t="n">
-        <v>87.42125773168455</v>
+        <v>135.6144631771978</v>
       </c>
       <c r="V20" t="n">
-        <v>57.88704903854787</v>
+        <v>89.79876615787424</v>
       </c>
       <c r="W20" t="n">
-        <v>28.3528403454112</v>
+        <v>43.98306913855064</v>
       </c>
       <c r="X20" t="n">
-        <v>2.339109328496424</v>
+        <v>43.98306913855064</v>
       </c>
       <c r="Y20" t="n">
-        <v>2.339109328496424</v>
+        <v>43.98306913855064</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.339109328496424</v>
+        <v>21.22649885773388</v>
       </c>
       <c r="C21" t="n">
-        <v>2.339109328496424</v>
+        <v>21.22649885773388</v>
       </c>
       <c r="D21" t="n">
-        <v>2.339109328496424</v>
+        <v>21.22649885773388</v>
       </c>
       <c r="E21" t="n">
-        <v>2.339109328496424</v>
+        <v>21.22649885773388</v>
       </c>
       <c r="F21" t="n">
-        <v>2.339109328496424</v>
+        <v>21.22649885773388</v>
       </c>
       <c r="G21" t="n">
-        <v>2.339109328496424</v>
+        <v>21.22649885773388</v>
       </c>
       <c r="H21" t="n">
-        <v>2.339109328496424</v>
+        <v>21.22649885773388</v>
       </c>
       <c r="I21" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="J21" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="K21" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="L21" t="n">
-        <v>16.55951693774551</v>
+        <v>17.84901081317951</v>
       </c>
       <c r="M21" t="n">
-        <v>45.50599487788876</v>
+        <v>62.75297546181857</v>
       </c>
       <c r="N21" t="n">
-        <v>74.45247281803202</v>
+        <v>107.6569401104576</v>
       </c>
       <c r="O21" t="n">
-        <v>103.3989507581753</v>
+        <v>136.6034180506009</v>
       </c>
       <c r="P21" t="n">
-        <v>116.9554664248212</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="Q21" t="n">
-        <v>94.19889614400448</v>
+        <v>158.6735899157047</v>
       </c>
       <c r="R21" t="n">
-        <v>94.19889614400448</v>
+        <v>112.8578928963811</v>
       </c>
       <c r="S21" t="n">
-        <v>94.19889614400448</v>
+        <v>67.04219587705748</v>
       </c>
       <c r="T21" t="n">
-        <v>64.6646874508678</v>
+        <v>67.04219587705748</v>
       </c>
       <c r="U21" t="n">
-        <v>35.13047875773113</v>
+        <v>67.04219587705748</v>
       </c>
       <c r="V21" t="n">
-        <v>31.8733180216331</v>
+        <v>21.22649885773388</v>
       </c>
       <c r="W21" t="n">
-        <v>2.339109328496424</v>
+        <v>21.22649885773388</v>
       </c>
       <c r="X21" t="n">
-        <v>2.339109328496424</v>
+        <v>21.22649885773388</v>
       </c>
       <c r="Y21" t="n">
-        <v>2.339109328496424</v>
+        <v>21.22649885773388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="C22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="D22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="E22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="F22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="G22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="H22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="I22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="J22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="K22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="L22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="M22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="N22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="O22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="P22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="R22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="S22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="T22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="U22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="V22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="W22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="X22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="Y22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>126.6976064941998</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="C23" t="n">
-        <v>65.76185885366507</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="D23" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="E23" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="F23" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="G23" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="H23" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="I23" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="J23" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="K23" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="L23" t="n">
-        <v>62.79240300828037</v>
+        <v>64.02277838053847</v>
       </c>
       <c r="M23" t="n">
-        <v>122.5155292707685</v>
+        <v>138.9717998747206</v>
       </c>
       <c r="N23" t="n">
-        <v>182.2386555332565</v>
+        <v>213.9208213689027</v>
       </c>
       <c r="O23" t="n">
-        <v>227.3510742501797</v>
+        <v>288.8698428630848</v>
       </c>
       <c r="P23" t="n">
-        <v>241.3055606565175</v>
+        <v>302.8243292694227</v>
       </c>
       <c r="Q23" t="n">
-        <v>241.3055606565175</v>
+        <v>302.8243292694227</v>
       </c>
       <c r="R23" t="n">
-        <v>241.3055606565175</v>
+        <v>235.468857244042</v>
       </c>
       <c r="S23" t="n">
-        <v>241.3055606565175</v>
+        <v>158.9980670244908</v>
       </c>
       <c r="T23" t="n">
-        <v>241.3055606565175</v>
+        <v>82.52727680493965</v>
       </c>
       <c r="U23" t="n">
-        <v>187.6333541347345</v>
+        <v>82.52727680493965</v>
       </c>
       <c r="V23" t="n">
-        <v>187.6333541347345</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="W23" t="n">
-        <v>187.6333541347345</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="X23" t="n">
-        <v>187.6333541347345</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="Y23" t="n">
-        <v>126.6976064941998</v>
+        <v>6.056486585388455</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>96.67749509463128</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="C24" t="n">
-        <v>96.67749509463128</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="D24" t="n">
-        <v>96.67749509463128</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="E24" t="n">
-        <v>96.67749509463128</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="F24" t="n">
-        <v>96.67749509463128</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="G24" t="n">
-        <v>65.76185885366507</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="H24" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="I24" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="J24" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="K24" t="n">
-        <v>4.826111213130351</v>
+        <v>34.32218053364127</v>
       </c>
       <c r="L24" t="n">
-        <v>64.54923747561844</v>
+        <v>86.85978302020621</v>
       </c>
       <c r="M24" t="n">
-        <v>124.2723637381065</v>
+        <v>131.7637476688453</v>
       </c>
       <c r="N24" t="n">
-        <v>183.9954900005946</v>
+        <v>198.9288298350974</v>
       </c>
       <c r="O24" t="n">
-        <v>241.3055606565175</v>
+        <v>227.8753077752406</v>
       </c>
       <c r="P24" t="n">
-        <v>241.3055606565175</v>
+        <v>302.8243292694227</v>
       </c>
       <c r="Q24" t="n">
-        <v>218.5489903757008</v>
+        <v>302.8243292694227</v>
       </c>
       <c r="R24" t="n">
-        <v>218.5489903757008</v>
+        <v>302.8243292694227</v>
       </c>
       <c r="S24" t="n">
-        <v>218.5489903757008</v>
+        <v>302.8243292694227</v>
       </c>
       <c r="T24" t="n">
-        <v>157.613242735166</v>
+        <v>302.8243292694227</v>
       </c>
       <c r="U24" t="n">
-        <v>96.67749509463128</v>
+        <v>226.3535390498715</v>
       </c>
       <c r="V24" t="n">
-        <v>96.67749509463128</v>
+        <v>149.8827488303203</v>
       </c>
       <c r="W24" t="n">
-        <v>96.67749509463128</v>
+        <v>149.8827488303203</v>
       </c>
       <c r="X24" t="n">
-        <v>96.67749509463128</v>
+        <v>73.41195861076915</v>
       </c>
       <c r="Y24" t="n">
-        <v>96.67749509463128</v>
+        <v>6.056486585388455</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="C25" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="D25" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="E25" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="F25" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="G25" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="H25" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="I25" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="J25" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="K25" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="L25" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="M25" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="N25" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="O25" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="P25" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="Q25" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="R25" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="S25" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="T25" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="U25" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="V25" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="W25" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="X25" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>65.76185885366507</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="C26" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="D26" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="E26" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="F26" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="G26" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="H26" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="I26" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="J26" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="K26" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="L26" t="n">
-        <v>48.18169546271542</v>
+        <v>64.02277838053847</v>
       </c>
       <c r="M26" t="n">
-        <v>107.9048217252035</v>
+        <v>138.9717998747206</v>
       </c>
       <c r="N26" t="n">
-        <v>167.6279479876916</v>
+        <v>213.9208213689027</v>
       </c>
       <c r="O26" t="n">
-        <v>227.3510742501797</v>
+        <v>288.8698428630848</v>
       </c>
       <c r="P26" t="n">
-        <v>241.3055606565175</v>
+        <v>302.8243292694227</v>
       </c>
       <c r="Q26" t="n">
-        <v>241.3055606565175</v>
+        <v>233.9271277814828</v>
       </c>
       <c r="R26" t="n">
-        <v>241.3055606565175</v>
+        <v>157.4563375619316</v>
       </c>
       <c r="S26" t="n">
-        <v>241.3055606565175</v>
+        <v>80.98554734238044</v>
       </c>
       <c r="T26" t="n">
-        <v>187.6333541347345</v>
+        <v>80.98554734238044</v>
       </c>
       <c r="U26" t="n">
-        <v>126.6976064941998</v>
+        <v>80.98554734238044</v>
       </c>
       <c r="V26" t="n">
-        <v>126.6976064941998</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="W26" t="n">
-        <v>126.6976064941998</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="X26" t="n">
-        <v>126.6976064941998</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="Y26" t="n">
-        <v>126.6976064941998</v>
+        <v>6.056486585388455</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="C27" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="D27" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="E27" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="F27" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="G27" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="H27" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="I27" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="J27" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="K27" t="n">
-        <v>33.09180516138317</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="L27" t="n">
-        <v>47.31221277063226</v>
+        <v>81.00550807957057</v>
       </c>
       <c r="M27" t="n">
-        <v>92.21617741927132</v>
+        <v>155.9545295737527</v>
       </c>
       <c r="N27" t="n">
-        <v>151.9393036817594</v>
+        <v>227.8753077752406</v>
       </c>
       <c r="O27" t="n">
-        <v>211.6624299442475</v>
+        <v>302.8243292694227</v>
       </c>
       <c r="P27" t="n">
-        <v>241.3055606565175</v>
+        <v>302.8243292694227</v>
       </c>
       <c r="Q27" t="n">
-        <v>241.3055606565175</v>
+        <v>280.067758988606</v>
       </c>
       <c r="R27" t="n">
-        <v>241.3055606565175</v>
+        <v>280.067758988606</v>
       </c>
       <c r="S27" t="n">
-        <v>241.3055606565175</v>
+        <v>280.067758988606</v>
       </c>
       <c r="T27" t="n">
-        <v>187.6333541347345</v>
+        <v>280.067758988606</v>
       </c>
       <c r="U27" t="n">
-        <v>126.6976064941998</v>
+        <v>203.5969687690548</v>
       </c>
       <c r="V27" t="n">
-        <v>65.76185885366507</v>
+        <v>127.1261785495036</v>
       </c>
       <c r="W27" t="n">
-        <v>4.826111213130351</v>
+        <v>50.65538832995242</v>
       </c>
       <c r="X27" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="Y27" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="C28" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="D28" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="E28" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="F28" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="G28" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="H28" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="I28" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="J28" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="K28" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="L28" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="M28" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="N28" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="O28" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="P28" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="Q28" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="R28" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="S28" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="T28" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="U28" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="V28" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="W28" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="X28" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4.826111213130351</v>
+        <v>149.8827488303203</v>
       </c>
       <c r="C29" t="n">
-        <v>4.826111213130351</v>
+        <v>82.52727680493965</v>
       </c>
       <c r="D29" t="n">
-        <v>4.826111213130351</v>
+        <v>82.52727680493965</v>
       </c>
       <c r="E29" t="n">
-        <v>4.826111213130351</v>
+        <v>82.52727680493965</v>
       </c>
       <c r="F29" t="n">
-        <v>4.826111213130351</v>
+        <v>82.52727680493965</v>
       </c>
       <c r="G29" t="n">
-        <v>4.826111213130351</v>
+        <v>82.52727680493965</v>
       </c>
       <c r="H29" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="I29" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="J29" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="K29" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="L29" t="n">
-        <v>48.18169546271542</v>
+        <v>64.02277838053847</v>
       </c>
       <c r="M29" t="n">
-        <v>107.9048217252035</v>
+        <v>138.9717998747206</v>
       </c>
       <c r="N29" t="n">
-        <v>167.6279479876916</v>
+        <v>213.9208213689027</v>
       </c>
       <c r="O29" t="n">
-        <v>227.3510742501797</v>
+        <v>288.8698428630848</v>
       </c>
       <c r="P29" t="n">
-        <v>241.3055606565175</v>
+        <v>302.8243292694227</v>
       </c>
       <c r="Q29" t="n">
-        <v>187.6333541347345</v>
+        <v>302.8243292694227</v>
       </c>
       <c r="R29" t="n">
-        <v>187.6333541347345</v>
+        <v>302.8243292694227</v>
       </c>
       <c r="S29" t="n">
-        <v>126.6976064941998</v>
+        <v>302.8243292694227</v>
       </c>
       <c r="T29" t="n">
-        <v>126.6976064941998</v>
+        <v>302.8243292694227</v>
       </c>
       <c r="U29" t="n">
-        <v>65.76185885366507</v>
+        <v>226.3535390498715</v>
       </c>
       <c r="V29" t="n">
-        <v>4.826111213130351</v>
+        <v>226.3535390498715</v>
       </c>
       <c r="W29" t="n">
-        <v>4.826111213130351</v>
+        <v>226.3535390498715</v>
       </c>
       <c r="X29" t="n">
-        <v>4.826111213130351</v>
+        <v>226.3535390498715</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.826111213130351</v>
+        <v>226.3535390498715</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>58.49831773491334</v>
+        <v>73.41195861076915</v>
       </c>
       <c r="C30" t="n">
-        <v>4.826111213130351</v>
+        <v>73.41195861076915</v>
       </c>
       <c r="D30" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="E30" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="F30" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="G30" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="H30" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="I30" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="J30" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="K30" t="n">
-        <v>33.09180516138317</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="L30" t="n">
-        <v>47.31221277063226</v>
+        <v>40.85723946616733</v>
       </c>
       <c r="M30" t="n">
-        <v>92.91283019139811</v>
+        <v>85.76120411480639</v>
       </c>
       <c r="N30" t="n">
-        <v>152.6359564538862</v>
+        <v>152.9262862810585</v>
       </c>
       <c r="O30" t="n">
-        <v>181.5824343940294</v>
+        <v>227.8753077752406</v>
       </c>
       <c r="P30" t="n">
-        <v>241.3055606565175</v>
+        <v>302.8243292694227</v>
       </c>
       <c r="Q30" t="n">
-        <v>241.3055606565175</v>
+        <v>302.8243292694227</v>
       </c>
       <c r="R30" t="n">
-        <v>241.3055606565175</v>
+        <v>226.3535390498715</v>
       </c>
       <c r="S30" t="n">
-        <v>241.3055606565175</v>
+        <v>149.8827488303203</v>
       </c>
       <c r="T30" t="n">
-        <v>241.3055606565175</v>
+        <v>73.41195861076915</v>
       </c>
       <c r="U30" t="n">
-        <v>241.3055606565175</v>
+        <v>73.41195861076915</v>
       </c>
       <c r="V30" t="n">
-        <v>241.3055606565175</v>
+        <v>73.41195861076915</v>
       </c>
       <c r="W30" t="n">
-        <v>180.3698130159828</v>
+        <v>73.41195861076915</v>
       </c>
       <c r="X30" t="n">
-        <v>119.4340653754481</v>
+        <v>73.41195861076915</v>
       </c>
       <c r="Y30" t="n">
-        <v>58.49831773491334</v>
+        <v>73.41195861076915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="C31" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="D31" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="E31" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="F31" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="G31" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="H31" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="I31" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="J31" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="K31" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="L31" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="M31" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="N31" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="O31" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="P31" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="Q31" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="R31" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="S31" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="T31" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="U31" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="V31" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="W31" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="X31" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>187.6333541347345</v>
+        <v>158.9980670244908</v>
       </c>
       <c r="C32" t="n">
-        <v>187.6333541347345</v>
+        <v>158.9980670244908</v>
       </c>
       <c r="D32" t="n">
-        <v>126.6976064941998</v>
+        <v>158.9980670244908</v>
       </c>
       <c r="E32" t="n">
-        <v>126.6976064941998</v>
+        <v>82.52727680493965</v>
       </c>
       <c r="F32" t="n">
-        <v>65.76185885366507</v>
+        <v>82.52727680493965</v>
       </c>
       <c r="G32" t="n">
-        <v>65.76185885366507</v>
+        <v>82.52727680493965</v>
       </c>
       <c r="H32" t="n">
-        <v>65.76185885366507</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="I32" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="J32" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="K32" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="L32" t="n">
-        <v>62.79240300828037</v>
+        <v>64.02277838053847</v>
       </c>
       <c r="M32" t="n">
-        <v>122.5155292707685</v>
+        <v>138.9717998747206</v>
       </c>
       <c r="N32" t="n">
-        <v>182.2386555332565</v>
+        <v>213.9208213689027</v>
       </c>
       <c r="O32" t="n">
-        <v>241.3055606565175</v>
+        <v>288.8698428630848</v>
       </c>
       <c r="P32" t="n">
-        <v>241.3055606565175</v>
+        <v>302.8243292694227</v>
       </c>
       <c r="Q32" t="n">
-        <v>241.3055606565175</v>
+        <v>302.8243292694227</v>
       </c>
       <c r="R32" t="n">
-        <v>241.3055606565175</v>
+        <v>302.8243292694227</v>
       </c>
       <c r="S32" t="n">
-        <v>241.3055606565175</v>
+        <v>302.8243292694227</v>
       </c>
       <c r="T32" t="n">
-        <v>241.3055606565175</v>
+        <v>302.8243292694227</v>
       </c>
       <c r="U32" t="n">
-        <v>241.3055606565175</v>
+        <v>302.8243292694227</v>
       </c>
       <c r="V32" t="n">
-        <v>241.3055606565175</v>
+        <v>302.8243292694227</v>
       </c>
       <c r="W32" t="n">
-        <v>241.3055606565175</v>
+        <v>302.8243292694227</v>
       </c>
       <c r="X32" t="n">
-        <v>187.6333541347345</v>
+        <v>235.468857244042</v>
       </c>
       <c r="Y32" t="n">
-        <v>187.6333541347345</v>
+        <v>158.9980670244908</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>65.76185885366507</v>
+        <v>50.65538832995242</v>
       </c>
       <c r="C33" t="n">
-        <v>65.76185885366507</v>
+        <v>50.65538832995242</v>
       </c>
       <c r="D33" t="n">
-        <v>65.76185885366507</v>
+        <v>50.65538832995242</v>
       </c>
       <c r="E33" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="F33" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="G33" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="H33" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="I33" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="J33" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="K33" t="n">
-        <v>4.826111213130351</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="L33" t="n">
-        <v>48.00886554275905</v>
+        <v>81.00550807957057</v>
       </c>
       <c r="M33" t="n">
-        <v>92.91283019139811</v>
+        <v>155.9545295737527</v>
       </c>
       <c r="N33" t="n">
-        <v>152.6359564538862</v>
+        <v>223.1196117400048</v>
       </c>
       <c r="O33" t="n">
-        <v>181.5824343940294</v>
+        <v>298.0686332341869</v>
       </c>
       <c r="P33" t="n">
-        <v>241.3055606565175</v>
+        <v>302.8243292694227</v>
       </c>
       <c r="Q33" t="n">
-        <v>241.3055606565175</v>
+        <v>280.067758988606</v>
       </c>
       <c r="R33" t="n">
-        <v>241.3055606565175</v>
+        <v>203.5969687690548</v>
       </c>
       <c r="S33" t="n">
-        <v>241.3055606565175</v>
+        <v>127.1261785495036</v>
       </c>
       <c r="T33" t="n">
-        <v>187.6333541347345</v>
+        <v>50.65538832995242</v>
       </c>
       <c r="U33" t="n">
-        <v>126.6976064941998</v>
+        <v>50.65538832995242</v>
       </c>
       <c r="V33" t="n">
-        <v>65.76185885366507</v>
+        <v>50.65538832995242</v>
       </c>
       <c r="W33" t="n">
-        <v>65.76185885366507</v>
+        <v>50.65538832995242</v>
       </c>
       <c r="X33" t="n">
-        <v>65.76185885366507</v>
+        <v>50.65538832995242</v>
       </c>
       <c r="Y33" t="n">
-        <v>65.76185885366507</v>
+        <v>50.65538832995242</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>241.3055606565175</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="C34" t="n">
-        <v>241.3055606565175</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="D34" t="n">
-        <v>241.3055606565175</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="E34" t="n">
-        <v>241.3055606565175</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="F34" t="n">
-        <v>241.3055606565175</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="G34" t="n">
-        <v>241.3055606565175</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="H34" t="n">
-        <v>241.3055606565175</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="I34" t="n">
-        <v>241.3055606565175</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="J34" t="n">
-        <v>241.3055606565175</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="K34" t="n">
-        <v>241.3055606565175</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="L34" t="n">
-        <v>241.3055606565175</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="M34" t="n">
-        <v>241.3055606565175</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="N34" t="n">
-        <v>241.3055606565175</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="O34" t="n">
-        <v>241.3055606565175</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="P34" t="n">
-        <v>241.3055606565175</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="Q34" t="n">
-        <v>241.3055606565175</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="R34" t="n">
-        <v>241.3055606565175</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="S34" t="n">
-        <v>241.3055606565175</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="T34" t="n">
-        <v>241.3055606565175</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="U34" t="n">
-        <v>241.3055606565175</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="V34" t="n">
-        <v>241.3055606565175</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="W34" t="n">
-        <v>241.3055606565175</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="X34" t="n">
-        <v>241.3055606565175</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="Y34" t="n">
-        <v>241.3055606565175</v>
+        <v>6.056486585388455</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>89.79876615787424</v>
+        <v>126.5978788029602</v>
       </c>
       <c r="C35" t="n">
-        <v>49.44430022325403</v>
+        <v>126.5978788029602</v>
       </c>
       <c r="D35" t="n">
-        <v>49.44430022325403</v>
+        <v>126.5978788029602</v>
       </c>
       <c r="E35" t="n">
-        <v>49.44430022325403</v>
+        <v>126.5978788029602</v>
       </c>
       <c r="F35" t="n">
-        <v>49.44430022325403</v>
+        <v>126.5978788029602</v>
       </c>
       <c r="G35" t="n">
-        <v>49.44430022325403</v>
+        <v>126.5978788029602</v>
       </c>
       <c r="H35" t="n">
-        <v>49.44430022325403</v>
+        <v>62.007124311654</v>
       </c>
       <c r="I35" t="n">
-        <v>3.628603203930429</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="J35" t="n">
-        <v>3.628603203930429</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="K35" t="n">
-        <v>3.628603203930429</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="L35" t="n">
-        <v>48.53256785256949</v>
+        <v>63.08187955086147</v>
       </c>
       <c r="M35" t="n">
-        <v>93.43653250120855</v>
+        <v>126.3872780277907</v>
       </c>
       <c r="N35" t="n">
-        <v>122.5717091415445</v>
+        <v>178.5195029023056</v>
       </c>
       <c r="O35" t="n">
-        <v>167.4756737901836</v>
+        <v>241.8249013792349</v>
       </c>
       <c r="P35" t="n">
-        <v>181.4301601965215</v>
+        <v>255.7793877855727</v>
       </c>
       <c r="Q35" t="n">
-        <v>181.4301601965215</v>
+        <v>191.1886332942665</v>
       </c>
       <c r="R35" t="n">
-        <v>181.4301601965215</v>
+        <v>126.5978788029602</v>
       </c>
       <c r="S35" t="n">
-        <v>181.4301601965215</v>
+        <v>126.5978788029602</v>
       </c>
       <c r="T35" t="n">
-        <v>181.4301601965215</v>
+        <v>126.5978788029602</v>
       </c>
       <c r="U35" t="n">
-        <v>181.4301601965215</v>
+        <v>126.5978788029602</v>
       </c>
       <c r="V35" t="n">
-        <v>181.4301601965215</v>
+        <v>126.5978788029602</v>
       </c>
       <c r="W35" t="n">
-        <v>181.4301601965215</v>
+        <v>126.5978788029602</v>
       </c>
       <c r="X35" t="n">
-        <v>181.4301601965215</v>
+        <v>126.5978788029602</v>
       </c>
       <c r="Y35" t="n">
-        <v>135.6144631771978</v>
+        <v>126.5978788029602</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>95.25999724257764</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="C36" t="n">
-        <v>95.25999724257764</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="D36" t="n">
-        <v>95.25999724257764</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="E36" t="n">
-        <v>49.44430022325403</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="F36" t="n">
-        <v>3.628603203930429</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="G36" t="n">
-        <v>3.628603203930429</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="H36" t="n">
-        <v>3.628603203930429</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="I36" t="n">
-        <v>3.628603203930429</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="J36" t="n">
-        <v>3.628603203930429</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="K36" t="n">
-        <v>31.89429715218325</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="L36" t="n">
-        <v>46.71826625060427</v>
+        <v>68.4209862326407</v>
       </c>
       <c r="M36" t="n">
-        <v>91.62223089924333</v>
+        <v>129.1685908317142</v>
       </c>
       <c r="N36" t="n">
-        <v>136.5261955478824</v>
+        <v>192.4739893086435</v>
       </c>
       <c r="O36" t="n">
-        <v>181.4301601965215</v>
+        <v>255.7793877855727</v>
       </c>
       <c r="P36" t="n">
-        <v>181.4301601965215</v>
+        <v>255.7793877855727</v>
       </c>
       <c r="Q36" t="n">
-        <v>181.4301601965215</v>
+        <v>233.0228175047559</v>
       </c>
       <c r="R36" t="n">
-        <v>141.0756942619012</v>
+        <v>168.4320630134497</v>
       </c>
       <c r="S36" t="n">
-        <v>141.0756942619012</v>
+        <v>168.4320630134497</v>
       </c>
       <c r="T36" t="n">
-        <v>141.0756942619012</v>
+        <v>168.4320630134497</v>
       </c>
       <c r="U36" t="n">
-        <v>141.0756942619012</v>
+        <v>103.8413085221434</v>
       </c>
       <c r="V36" t="n">
-        <v>95.25999724257764</v>
+        <v>69.7063422470177</v>
       </c>
       <c r="W36" t="n">
-        <v>95.25999724257764</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="X36" t="n">
-        <v>95.25999724257764</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="Y36" t="n">
-        <v>95.25999724257764</v>
+        <v>5.115587755711454</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>181.4301601965215</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="C37" t="n">
-        <v>181.4301601965215</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="D37" t="n">
-        <v>181.4301601965215</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="E37" t="n">
-        <v>181.4301601965215</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="F37" t="n">
-        <v>181.4301601965215</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="G37" t="n">
-        <v>181.4301601965215</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="H37" t="n">
-        <v>181.4301601965215</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="I37" t="n">
-        <v>181.4301601965215</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="J37" t="n">
-        <v>181.4301601965215</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="K37" t="n">
-        <v>181.4301601965215</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="L37" t="n">
-        <v>181.4301601965215</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="M37" t="n">
-        <v>181.4301601965215</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="N37" t="n">
-        <v>181.4301601965215</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="O37" t="n">
-        <v>181.4301601965215</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="P37" t="n">
-        <v>181.4301601965215</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="Q37" t="n">
-        <v>181.4301601965215</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="R37" t="n">
-        <v>181.4301601965215</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="S37" t="n">
-        <v>181.4301601965215</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="T37" t="n">
-        <v>181.4301601965215</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="U37" t="n">
-        <v>181.4301601965215</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="V37" t="n">
-        <v>181.4301601965215</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="W37" t="n">
-        <v>181.4301601965215</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="X37" t="n">
-        <v>181.4301601965215</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="Y37" t="n">
-        <v>181.4301601965215</v>
+        <v>5.115587755711454</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>43.98306913855064</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="C38" t="n">
-        <v>43.98306913855064</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="D38" t="n">
-        <v>43.98306913855064</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="E38" t="n">
-        <v>3.628603203930429</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="F38" t="n">
-        <v>3.628603203930429</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="G38" t="n">
-        <v>3.628603203930429</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="H38" t="n">
-        <v>3.628603203930429</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="I38" t="n">
-        <v>3.628603203930429</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="J38" t="n">
-        <v>3.628603203930429</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="K38" t="n">
-        <v>3.628603203930429</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="L38" t="n">
-        <v>48.53256785256949</v>
+        <v>63.08187955086147</v>
       </c>
       <c r="M38" t="n">
-        <v>93.43653250120855</v>
+        <v>115.2141044253764</v>
       </c>
       <c r="N38" t="n">
-        <v>138.3404971498476</v>
+        <v>178.5195029023056</v>
       </c>
       <c r="O38" t="n">
-        <v>167.4756737901836</v>
+        <v>241.8249013792349</v>
       </c>
       <c r="P38" t="n">
-        <v>181.4301601965215</v>
+        <v>255.7793877855727</v>
       </c>
       <c r="Q38" t="n">
-        <v>181.4301601965215</v>
+        <v>255.7793877855727</v>
       </c>
       <c r="R38" t="n">
-        <v>181.4301601965215</v>
+        <v>191.1886332942665</v>
       </c>
       <c r="S38" t="n">
-        <v>181.4301601965215</v>
+        <v>126.5978788029602</v>
       </c>
       <c r="T38" t="n">
-        <v>181.4301601965215</v>
+        <v>62.007124311654</v>
       </c>
       <c r="U38" t="n">
-        <v>135.6144631771978</v>
+        <v>62.007124311654</v>
       </c>
       <c r="V38" t="n">
-        <v>89.79876615787424</v>
+        <v>62.007124311654</v>
       </c>
       <c r="W38" t="n">
-        <v>43.98306913855064</v>
+        <v>62.007124311654</v>
       </c>
       <c r="X38" t="n">
-        <v>43.98306913855064</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="Y38" t="n">
-        <v>43.98306913855064</v>
+        <v>5.115587755711454</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>49.44430022325403</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="C39" t="n">
-        <v>3.628603203930429</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="D39" t="n">
-        <v>3.628603203930429</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="E39" t="n">
-        <v>3.628603203930429</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="F39" t="n">
-        <v>3.628603203930429</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="G39" t="n">
-        <v>3.628603203930429</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="H39" t="n">
-        <v>3.628603203930429</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="I39" t="n">
-        <v>3.628603203930429</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="J39" t="n">
-        <v>3.628603203930429</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="K39" t="n">
-        <v>3.628603203930429</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="L39" t="n">
-        <v>17.84901081317951</v>
+        <v>55.3181482429319</v>
       </c>
       <c r="M39" t="n">
-        <v>62.75297546181857</v>
+        <v>100.222112891571</v>
       </c>
       <c r="N39" t="n">
-        <v>107.6569401104576</v>
+        <v>163.5275113685002</v>
       </c>
       <c r="O39" t="n">
-        <v>136.6034180506009</v>
+        <v>192.4739893086435</v>
       </c>
       <c r="P39" t="n">
-        <v>181.4301601965215</v>
+        <v>255.7793877855727</v>
       </c>
       <c r="Q39" t="n">
-        <v>181.4301601965215</v>
+        <v>255.7793877855727</v>
       </c>
       <c r="R39" t="n">
-        <v>181.4301601965215</v>
+        <v>255.7793877855727</v>
       </c>
       <c r="S39" t="n">
-        <v>181.4301601965215</v>
+        <v>255.7793877855727</v>
       </c>
       <c r="T39" t="n">
-        <v>181.4301601965215</v>
+        <v>198.8878512296302</v>
       </c>
       <c r="U39" t="n">
-        <v>181.4301601965215</v>
+        <v>134.2970967383239</v>
       </c>
       <c r="V39" t="n">
-        <v>181.4301601965215</v>
+        <v>69.7063422470177</v>
       </c>
       <c r="W39" t="n">
-        <v>181.4301601965215</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="X39" t="n">
-        <v>135.6144631771978</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="Y39" t="n">
-        <v>89.79876615787424</v>
+        <v>5.115587755711454</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>181.4301601965215</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="C40" t="n">
-        <v>181.4301601965215</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="D40" t="n">
-        <v>181.4301601965215</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="E40" t="n">
-        <v>181.4301601965215</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="F40" t="n">
-        <v>181.4301601965215</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="G40" t="n">
-        <v>181.4301601965215</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="H40" t="n">
-        <v>181.4301601965215</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="I40" t="n">
-        <v>181.4301601965215</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="J40" t="n">
-        <v>181.4301601965215</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="K40" t="n">
-        <v>181.4301601965215</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="L40" t="n">
-        <v>181.4301601965215</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="M40" t="n">
-        <v>181.4301601965215</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="N40" t="n">
-        <v>181.4301601965215</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="O40" t="n">
-        <v>181.4301601965215</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="P40" t="n">
-        <v>181.4301601965215</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="Q40" t="n">
-        <v>181.4301601965215</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="R40" t="n">
-        <v>181.4301601965215</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="S40" t="n">
-        <v>181.4301601965215</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="T40" t="n">
-        <v>181.4301601965215</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="U40" t="n">
-        <v>181.4301601965215</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="V40" t="n">
-        <v>181.4301601965215</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="W40" t="n">
-        <v>181.4301601965215</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="X40" t="n">
-        <v>181.4301601965215</v>
+        <v>5.115587755711454</v>
       </c>
       <c r="Y40" t="n">
-        <v>181.4301601965215</v>
+        <v>5.115587755711454</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.487001884633925</v>
+        <v>32.539303769466</v>
       </c>
       <c r="C41" t="n">
-        <v>2.487001884633925</v>
+        <v>32.539303769466</v>
       </c>
       <c r="D41" t="n">
-        <v>2.487001884633925</v>
+        <v>32.539303769466</v>
       </c>
       <c r="E41" t="n">
-        <v>2.487001884633925</v>
+        <v>32.539303769466</v>
       </c>
       <c r="F41" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="G41" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="H41" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="I41" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="J41" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="K41" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="L41" t="n">
-        <v>33.26365020697875</v>
+        <v>20.60835531629188</v>
       </c>
       <c r="M41" t="n">
-        <v>64.04029852932358</v>
+        <v>53.82895075843108</v>
       </c>
       <c r="N41" t="n">
-        <v>79.61895950301358</v>
+        <v>87.04954620057029</v>
       </c>
       <c r="O41" t="n">
-        <v>110.3956078253584</v>
+        <v>120.2701416427095</v>
       </c>
       <c r="P41" t="n">
-        <v>124.3500942316963</v>
+        <v>134.2246280490473</v>
       </c>
       <c r="Q41" t="n">
-        <v>92.94855528429822</v>
+        <v>134.2246280490473</v>
       </c>
       <c r="R41" t="n">
-        <v>92.94855528429822</v>
+        <v>134.2246280490473</v>
       </c>
       <c r="S41" t="n">
-        <v>92.94855528429822</v>
+        <v>100.3295199558535</v>
       </c>
       <c r="T41" t="n">
-        <v>92.94855528429822</v>
+        <v>66.43441186265977</v>
       </c>
       <c r="U41" t="n">
-        <v>92.94855528429822</v>
+        <v>32.539303769466</v>
       </c>
       <c r="V41" t="n">
-        <v>92.94855528429822</v>
+        <v>32.539303769466</v>
       </c>
       <c r="W41" t="n">
-        <v>61.54701633690017</v>
+        <v>32.539303769466</v>
       </c>
       <c r="X41" t="n">
-        <v>61.54701633690017</v>
+        <v>32.539303769466</v>
       </c>
       <c r="Y41" t="n">
-        <v>30.14547738950212</v>
+        <v>32.539303769466</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>61.54701633690017</v>
+        <v>66.43441186265977</v>
       </c>
       <c r="C42" t="n">
-        <v>61.54701633690017</v>
+        <v>66.43441186265977</v>
       </c>
       <c r="D42" t="n">
-        <v>61.54701633690017</v>
+        <v>66.43441186265977</v>
       </c>
       <c r="E42" t="n">
-        <v>61.54701633690017</v>
+        <v>66.43441186265977</v>
       </c>
       <c r="F42" t="n">
-        <v>61.54701633690017</v>
+        <v>66.43441186265977</v>
       </c>
       <c r="G42" t="n">
-        <v>61.54701633690017</v>
+        <v>66.43441186265977</v>
       </c>
       <c r="H42" t="n">
-        <v>61.54701633690017</v>
+        <v>66.43441186265977</v>
       </c>
       <c r="I42" t="n">
-        <v>33.88854083203198</v>
+        <v>32.539303769466</v>
       </c>
       <c r="J42" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="K42" t="n">
-        <v>2.487001884633925</v>
+        <v>24.61655161537661</v>
       </c>
       <c r="L42" t="n">
-        <v>32.0201492646618</v>
+        <v>38.83695922462567</v>
       </c>
       <c r="M42" t="n">
-        <v>62.79679758700662</v>
+        <v>72.05755466676487</v>
       </c>
       <c r="N42" t="n">
-        <v>93.57344590935145</v>
+        <v>105.2781501089041</v>
       </c>
       <c r="O42" t="n">
-        <v>124.3500942316963</v>
+        <v>134.2246280490473</v>
       </c>
       <c r="P42" t="n">
-        <v>124.3500942316963</v>
+        <v>134.2246280490473</v>
       </c>
       <c r="Q42" t="n">
-        <v>124.3500942316963</v>
+        <v>134.2246280490473</v>
       </c>
       <c r="R42" t="n">
-        <v>124.3500942316963</v>
+        <v>134.2246280490473</v>
       </c>
       <c r="S42" t="n">
-        <v>124.3500942316963</v>
+        <v>100.3295199558535</v>
       </c>
       <c r="T42" t="n">
-        <v>124.3500942316963</v>
+        <v>66.43441186265977</v>
       </c>
       <c r="U42" t="n">
-        <v>124.3500942316963</v>
+        <v>66.43441186265977</v>
       </c>
       <c r="V42" t="n">
-        <v>124.3500942316963</v>
+        <v>66.43441186265977</v>
       </c>
       <c r="W42" t="n">
-        <v>92.94855528429822</v>
+        <v>66.43441186265977</v>
       </c>
       <c r="X42" t="n">
-        <v>92.94855528429822</v>
+        <v>66.43441186265977</v>
       </c>
       <c r="Y42" t="n">
-        <v>92.94855528429822</v>
+        <v>66.43441186265977</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="C43" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="D43" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="E43" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="F43" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="G43" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="H43" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="I43" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="J43" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="K43" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="L43" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="M43" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="N43" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="O43" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="P43" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="R43" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="S43" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="T43" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="U43" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="V43" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="W43" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="X43" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>33.88854083203198</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="C44" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="D44" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="E44" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="F44" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="G44" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="H44" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="I44" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="J44" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="K44" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="L44" t="n">
-        <v>18.06566285832393</v>
+        <v>20.60835531629188</v>
       </c>
       <c r="M44" t="n">
-        <v>48.84231118066876</v>
+        <v>53.82895075843108</v>
       </c>
       <c r="N44" t="n">
-        <v>79.61895950301358</v>
+        <v>87.04954620057029</v>
       </c>
       <c r="O44" t="n">
-        <v>110.3956078253584</v>
+        <v>120.2701416427095</v>
       </c>
       <c r="P44" t="n">
-        <v>124.3500942316963</v>
+        <v>134.2246280490473</v>
       </c>
       <c r="Q44" t="n">
-        <v>124.3500942316963</v>
+        <v>100.3295199558535</v>
       </c>
       <c r="R44" t="n">
-        <v>92.94855528429822</v>
+        <v>66.43441186265977</v>
       </c>
       <c r="S44" t="n">
-        <v>92.94855528429822</v>
+        <v>32.539303769466</v>
       </c>
       <c r="T44" t="n">
-        <v>92.94855528429822</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="U44" t="n">
-        <v>92.94855528429822</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="V44" t="n">
-        <v>92.94855528429822</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="W44" t="n">
-        <v>92.94855528429822</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="X44" t="n">
-        <v>92.94855528429822</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="Y44" t="n">
-        <v>61.54701633690017</v>
+        <v>2.684492560980946</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.487001884633925</v>
+        <v>9.782733488649242</v>
       </c>
       <c r="C45" t="n">
-        <v>2.487001884633925</v>
+        <v>9.782733488649242</v>
       </c>
       <c r="D45" t="n">
-        <v>2.487001884633925</v>
+        <v>9.782733488649242</v>
       </c>
       <c r="E45" t="n">
-        <v>2.487001884633925</v>
+        <v>9.782733488649242</v>
       </c>
       <c r="F45" t="n">
-        <v>2.487001884633925</v>
+        <v>9.782733488649242</v>
       </c>
       <c r="G45" t="n">
-        <v>2.487001884633925</v>
+        <v>9.782733488649242</v>
       </c>
       <c r="H45" t="n">
-        <v>2.487001884633925</v>
+        <v>9.782733488649242</v>
       </c>
       <c r="I45" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="J45" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="K45" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="L45" t="n">
-        <v>33.26365020697875</v>
+        <v>35.90508800312016</v>
       </c>
       <c r="M45" t="n">
-        <v>64.04029852932358</v>
+        <v>69.12568344525937</v>
       </c>
       <c r="N45" t="n">
-        <v>94.8169468516684</v>
+        <v>102.3462788873986</v>
       </c>
       <c r="O45" t="n">
-        <v>124.3500942316963</v>
+        <v>134.2246280490473</v>
       </c>
       <c r="P45" t="n">
-        <v>124.3500942316963</v>
+        <v>134.2246280490473</v>
       </c>
       <c r="Q45" t="n">
-        <v>124.3500942316963</v>
+        <v>111.4680577682306</v>
       </c>
       <c r="R45" t="n">
-        <v>124.3500942316963</v>
+        <v>77.57294967503678</v>
       </c>
       <c r="S45" t="n">
-        <v>124.3500942316963</v>
+        <v>77.57294967503678</v>
       </c>
       <c r="T45" t="n">
-        <v>96.69161872682808</v>
+        <v>43.67784158184301</v>
       </c>
       <c r="U45" t="n">
-        <v>65.29007977943003</v>
+        <v>43.67784158184301</v>
       </c>
       <c r="V45" t="n">
-        <v>33.88854083203198</v>
+        <v>9.782733488649242</v>
       </c>
       <c r="W45" t="n">
-        <v>2.487001884633925</v>
+        <v>9.782733488649242</v>
       </c>
       <c r="X45" t="n">
-        <v>2.487001884633925</v>
+        <v>9.782733488649242</v>
       </c>
       <c r="Y45" t="n">
-        <v>2.487001884633925</v>
+        <v>9.782733488649242</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="C46" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="D46" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="E46" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="F46" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="G46" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="H46" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="I46" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="J46" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="K46" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="L46" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="M46" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="N46" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="O46" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="P46" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="R46" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="S46" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="T46" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="U46" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="V46" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="W46" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="X46" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.487001884633925</v>
+        <v>2.684492560980946</v>
       </c>
     </row>
   </sheetData>
@@ -8224,10 +8224,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M5" t="n">
-        <v>99.68783188443123</v>
+        <v>116.8735187081364</v>
       </c>
       <c r="N5" t="n">
-        <v>94.48503193782864</v>
+        <v>111.9488011414238</v>
       </c>
       <c r="O5" t="n">
         <v>99.00804712831379</v>
@@ -8300,19 +8300,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L6" t="n">
-        <v>45.70567566297734</v>
+        <v>57.07593346819698</v>
       </c>
       <c r="M6" t="n">
-        <v>24.74099426494294</v>
+        <v>38.00954882322065</v>
       </c>
       <c r="N6" t="n">
-        <v>4.110316593019462</v>
+        <v>17.73005030863848</v>
       </c>
       <c r="O6" t="n">
-        <v>36.58483411969974</v>
+        <v>49.04422963853116</v>
       </c>
       <c r="P6" t="n">
-        <v>57.92276625276148</v>
+        <v>67.92252959633595</v>
       </c>
       <c r="Q6" t="n">
         <v>54.62009481132077</v>
@@ -8695,16 +8695,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>65.00895600402518</v>
+        <v>50.30871316469422</v>
       </c>
       <c r="M11" t="n">
-        <v>23.86371338847809</v>
+        <v>23.86371338847812</v>
       </c>
       <c r="N11" t="n">
-        <v>17.19178828862399</v>
+        <v>17.19178828862402</v>
       </c>
       <c r="O11" t="n">
-        <v>22.06748250983135</v>
+        <v>36.7677253491625</v>
       </c>
       <c r="P11" t="n">
         <v>83.66766412458549</v>
@@ -8771,7 +8771,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>40.20975561493427</v>
+        <v>40.20975561493432</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>5.093443300258059</v>
+        <v>5.093443300258087</v>
       </c>
       <c r="Q12" t="n">
         <v>54.62009481132077</v>
@@ -8932,16 +8932,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>65.00895600402524</v>
+        <v>50.30871316469422</v>
       </c>
       <c r="M14" t="n">
-        <v>23.86371338847809</v>
+        <v>23.86371338847812</v>
       </c>
       <c r="N14" t="n">
-        <v>17.19178828862405</v>
+        <v>17.19178828862402</v>
       </c>
       <c r="O14" t="n">
-        <v>22.06748250983146</v>
+        <v>36.7677253491625</v>
       </c>
       <c r="P14" t="n">
         <v>83.66766412458549</v>
@@ -9008,7 +9008,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K15" t="n">
-        <v>40.20975561493429</v>
+        <v>40.20975561493432</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>5.093443300258059</v>
+        <v>5.093443300258087</v>
       </c>
       <c r="Q15" t="n">
         <v>54.62009481132077</v>
@@ -9169,16 +9169,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L17" t="n">
-        <v>79.27897249523153</v>
+        <v>95.39764593815653</v>
       </c>
       <c r="M17" t="n">
-        <v>38.13372987968438</v>
+        <v>54.25240332260944</v>
       </c>
       <c r="N17" t="n">
-        <v>31.46180477983035</v>
+        <v>47.58047822275535</v>
       </c>
       <c r="O17" t="n">
-        <v>35.76093267816073</v>
+        <v>51.22834658803821</v>
       </c>
       <c r="P17" t="n">
         <v>83.66766412458549</v>
@@ -9245,7 +9245,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K18" t="n">
-        <v>40.20975561493429</v>
+        <v>40.20975561493427</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>18.78689346858733</v>
+        <v>50.37298082138992</v>
       </c>
       <c r="Q18" t="n">
         <v>54.62009481132077</v>
@@ -9403,19 +9403,19 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>84.27780726850284</v>
+        <v>84.27780726850281</v>
       </c>
       <c r="L20" t="n">
-        <v>79.27897249523147</v>
+        <v>95.39764593815653</v>
       </c>
       <c r="M20" t="n">
-        <v>22.85692071747622</v>
+        <v>54.25240332260944</v>
       </c>
       <c r="N20" t="n">
-        <v>31.46180477983029</v>
+        <v>47.58047822275535</v>
       </c>
       <c r="O20" t="n">
-        <v>51.03774184036877</v>
+        <v>51.22834658803821</v>
       </c>
       <c r="P20" t="n">
         <v>83.66766412458549</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>18.7868934685873</v>
+        <v>50.37298082138992</v>
       </c>
       <c r="Q21" t="n">
         <v>54.62009481132077</v>
@@ -9640,19 +9640,19 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>84.27780726850281</v>
+        <v>84.27780726850284</v>
       </c>
       <c r="L23" t="n">
         <v>108.5919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>69.22125343760845</v>
+        <v>84.60094559083473</v>
       </c>
       <c r="N23" t="n">
-        <v>62.54932833775436</v>
+        <v>77.92902049098063</v>
       </c>
       <c r="O23" t="n">
-        <v>67.36697494822721</v>
+        <v>97.50495755151911</v>
       </c>
       <c r="P23" t="n">
         <v>83.66766412458549</v>
@@ -9719,22 +9719,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K24" t="n">
-        <v>40.20975561493427</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L24" t="n">
-        <v>45.96234207397879</v>
+        <v>38.70423724981399</v>
       </c>
       <c r="M24" t="n">
-        <v>14.96885011499901</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>28.65009365230269</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>5.093443300258059</v>
+        <v>80.79952561761371</v>
       </c>
       <c r="Q24" t="n">
         <v>54.62009481132077</v>
@@ -9880,16 +9880,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L26" t="n">
-        <v>93.83362533305149</v>
+        <v>108.5919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>69.22125343760842</v>
+        <v>84.60094559083475</v>
       </c>
       <c r="N26" t="n">
-        <v>62.54932833775433</v>
+        <v>77.92902049098066</v>
       </c>
       <c r="O26" t="n">
-        <v>82.12526539829281</v>
+        <v>97.50495755151911</v>
       </c>
       <c r="P26" t="n">
         <v>83.66766412458549</v>
@@ -9956,22 +9956,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>68.76096162327045</v>
+        <v>40.20975561493427</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>61.34203422720509</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>30.34854226822532</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>4.803733368925066</v>
       </c>
       <c r="O27" t="n">
-        <v>31.08752355792407</v>
+        <v>46.46721571115037</v>
       </c>
       <c r="P27" t="n">
-        <v>35.03599957527828</v>
+        <v>5.093443300258059</v>
       </c>
       <c r="Q27" t="n">
         <v>54.62009481132077</v>
@@ -10117,16 +10117,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L29" t="n">
-        <v>93.83362533305149</v>
+        <v>108.5919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>69.22125343760842</v>
+        <v>84.60094559083473</v>
       </c>
       <c r="N29" t="n">
-        <v>62.54932833775433</v>
+        <v>77.92902049098063</v>
       </c>
       <c r="O29" t="n">
-        <v>82.12526539829281</v>
+        <v>97.50495755151911</v>
       </c>
       <c r="P29" t="n">
         <v>83.66766412458549</v>
@@ -10193,22 +10193,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K30" t="n">
-        <v>68.76096162327045</v>
+        <v>40.20975561493427</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>20.78822754699979</v>
       </c>
       <c r="M30" t="n">
-        <v>0.7036896688149454</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>46.46721571115037</v>
       </c>
       <c r="P30" t="n">
-        <v>65.41983346438741</v>
+        <v>80.79952561761371</v>
       </c>
       <c r="Q30" t="n">
         <v>54.62009481132077</v>
@@ -10351,22 +10351,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>84.27780726850281</v>
+        <v>84.27780726850284</v>
       </c>
       <c r="L32" t="n">
         <v>108.5919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>69.22125343760845</v>
+        <v>84.60094559083475</v>
       </c>
       <c r="N32" t="n">
-        <v>62.54932833775436</v>
+        <v>77.92902049098066</v>
       </c>
       <c r="O32" t="n">
-        <v>81.4624157627099</v>
+        <v>97.50495755151914</v>
       </c>
       <c r="P32" t="n">
-        <v>69.5722233101028</v>
+        <v>83.66766412458549</v>
       </c>
       <c r="Q32" t="n">
         <v>55.20189757157522</v>
@@ -10433,19 +10433,19 @@
         <v>40.20975561493427</v>
       </c>
       <c r="L33" t="n">
-        <v>29.25489567715113</v>
+        <v>61.34203422720509</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>30.34854226822532</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>46.46721571115037</v>
       </c>
       <c r="P33" t="n">
-        <v>65.41983346438741</v>
+        <v>9.897176669183125</v>
       </c>
       <c r="Q33" t="n">
         <v>54.62009481132077</v>
@@ -10588,19 +10588,19 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>84.27780726850284</v>
+        <v>84.27780726850281</v>
       </c>
       <c r="L35" t="n">
-        <v>95.39764593815653</v>
+        <v>108.5919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>54.25240332260944</v>
+        <v>72.83971021987225</v>
       </c>
       <c r="N35" t="n">
-        <v>31.65240952749973</v>
+        <v>54.88175117818549</v>
       </c>
       <c r="O35" t="n">
-        <v>67.15641528329382</v>
+        <v>85.74372218055663</v>
       </c>
       <c r="P35" t="n">
         <v>83.66766412458549</v>
@@ -10667,19 +10667,19 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>68.76096162327045</v>
+        <v>40.20975561493427</v>
       </c>
       <c r="L36" t="n">
-        <v>0.6096580698706511</v>
+        <v>49.58079885624259</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>16.00367671761057</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>16.11867344292506</v>
+        <v>34.70598034018789</v>
       </c>
       <c r="P36" t="n">
         <v>5.093443300258059</v>
@@ -10825,19 +10825,19 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>84.27780726850284</v>
+        <v>84.27780726850281</v>
       </c>
       <c r="L38" t="n">
-        <v>95.39764593815653</v>
+        <v>108.5919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>54.25240332260944</v>
+        <v>61.55367627803959</v>
       </c>
       <c r="N38" t="n">
-        <v>47.58047822275535</v>
+        <v>66.16778512001815</v>
       </c>
       <c r="O38" t="n">
-        <v>51.22834658803821</v>
+        <v>85.74372218055663</v>
       </c>
       <c r="P38" t="n">
         <v>83.66766412458549</v>
@@ -10907,7 +10907,7 @@
         <v>40.20975561493427</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>36.34560896764784</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>50.37298082138992</v>
+        <v>69.03829024665123</v>
       </c>
       <c r="Q39" t="n">
         <v>54.62009481132077</v>
@@ -11065,16 +11065,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>81.12762944695024</v>
+        <v>68.14501776307767</v>
       </c>
       <c r="M41" t="n">
-        <v>39.98238683140315</v>
+        <v>42.45102028574092</v>
       </c>
       <c r="N41" t="n">
-        <v>17.95895935917044</v>
+        <v>35.77909518588689</v>
       </c>
       <c r="O41" t="n">
-        <v>52.8863987920875</v>
+        <v>55.35503224642537</v>
       </c>
       <c r="P41" t="n">
         <v>83.66766412458549</v>
@@ -11141,10 +11141,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>40.20975561493427</v>
+        <v>62.36335061937436</v>
       </c>
       <c r="L42" t="n">
-        <v>15.46741390987756</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,7 +11153,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>1.848656951718766</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>5.093443300258059</v>
@@ -11302,16 +11302,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>65.77612707457163</v>
+        <v>68.14501776307767</v>
       </c>
       <c r="M44" t="n">
-        <v>39.98238683140312</v>
+        <v>42.45102028574092</v>
       </c>
       <c r="N44" t="n">
-        <v>33.31046173154903</v>
+        <v>35.77909518588689</v>
       </c>
       <c r="O44" t="n">
-        <v>52.8863987920875</v>
+        <v>55.35503224642537</v>
       </c>
       <c r="P44" t="n">
         <v>83.66766412458549</v>
@@ -11378,10 +11378,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>40.20975561493427</v>
+        <v>40.20975561493429</v>
       </c>
       <c r="L45" t="n">
-        <v>16.72347546777348</v>
+        <v>19.19210892211127</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0.5925953938228474</v>
+        <v>2.961486082328804</v>
       </c>
       <c r="P45" t="n">
         <v>5.093443300258059</v>
@@ -22798,22 +22798,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G5" t="n">
-        <v>422.2393938182636</v>
+        <v>422.3372670711946</v>
       </c>
       <c r="H5" t="n">
-        <v>350.2622638205034</v>
+        <v>351.2646082720821</v>
       </c>
       <c r="I5" t="n">
-        <v>255.5523639994917</v>
+        <v>259.3256225831108</v>
       </c>
       <c r="J5" t="n">
-        <v>106.1646981698698</v>
+        <v>114.4715681708149</v>
       </c>
       <c r="K5" t="n">
-        <v>65.77324371769896</v>
+        <v>78.22308851520961</v>
       </c>
       <c r="L5" t="n">
-        <v>23.04571500577077</v>
+        <v>38.49084836766585</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -22822,25 +22822,25 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>9.911307002426639</v>
+        <v>26.40184904719004</v>
       </c>
       <c r="P5" t="n">
-        <v>60.25987232023041</v>
+        <v>74.33416843326191</v>
       </c>
       <c r="Q5" t="n">
-        <v>124.0459730342343</v>
+        <v>134.6151832766775</v>
       </c>
       <c r="R5" t="n">
-        <v>213.3536458584579</v>
+        <v>219.5016765828794</v>
       </c>
       <c r="S5" t="n">
-        <v>236.6077625564945</v>
+        <v>238.8380493076577</v>
       </c>
       <c r="T5" t="n">
-        <v>219.6011498649016</v>
+        <v>220.0295900296067</v>
       </c>
       <c r="U5" t="n">
-        <v>248.7935393162601</v>
+        <v>248.8013691764946</v>
       </c>
       <c r="V5" t="n">
         <v>313.3044420010231</v>
@@ -22877,19 +22877,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G6" t="n">
-        <v>161.046439321575</v>
+        <v>161.0988061285559</v>
       </c>
       <c r="H6" t="n">
-        <v>138.0543186005382</v>
+        <v>138.5600717100643</v>
       </c>
       <c r="I6" t="n">
-        <v>118.0344046631496</v>
+        <v>119.8373846403433</v>
       </c>
       <c r="J6" t="n">
-        <v>84.43171408389503</v>
+        <v>89.37922894870135</v>
       </c>
       <c r="K6" t="n">
-        <v>16.12280710991269</v>
+        <v>24.57889804244016</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -22907,19 +22907,19 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>57.84400791324815</v>
+        <v>64.52858488856606</v>
       </c>
       <c r="R6" t="n">
-        <v>156.346333496958</v>
+        <v>159.5976691093343</v>
       </c>
       <c r="S6" t="n">
-        <v>208.6070930229635</v>
+        <v>209.5797834947361</v>
       </c>
       <c r="T6" t="n">
-        <v>230.2221530804289</v>
+        <v>230.4332280611984</v>
       </c>
       <c r="U6" t="n">
-        <v>249.6516250615921</v>
+        <v>249.6550702462619</v>
       </c>
       <c r="V6" t="n">
         <v>249.2999251801724</v>
@@ -22956,49 +22956,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G7" t="n">
-        <v>169.2607674555123</v>
+        <v>169.30467002737</v>
       </c>
       <c r="H7" t="n">
-        <v>167.8122202643745</v>
+        <v>168.2025540396188</v>
       </c>
       <c r="I7" t="n">
-        <v>168.529032519084</v>
+        <v>169.8493025891331</v>
       </c>
       <c r="J7" t="n">
-        <v>134.1457888115874</v>
+        <v>137.2497006419296</v>
       </c>
       <c r="K7" t="n">
-        <v>90.52990087376831</v>
+        <v>95.63058149505841</v>
       </c>
       <c r="L7" t="n">
-        <v>64.93943331628576</v>
+        <v>71.46654840866277</v>
       </c>
       <c r="M7" t="n">
-        <v>61.78340873733819</v>
+        <v>68.66533643318368</v>
       </c>
       <c r="N7" t="n">
-        <v>49.34294830806651</v>
+        <v>56.06123914516951</v>
       </c>
       <c r="O7" t="n">
-        <v>74.45572062203524</v>
+        <v>80.66114959698193</v>
       </c>
       <c r="P7" t="n">
-        <v>93.04043633123682</v>
+        <v>98.35025284028561</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.848116654854</v>
+        <v>157.5243583765053</v>
       </c>
       <c r="R7" t="n">
-        <v>222.2398667230036</v>
+        <v>224.2138859994434</v>
       </c>
       <c r="S7" t="n">
-        <v>244.1518414419876</v>
+        <v>244.9169435351811</v>
       </c>
       <c r="T7" t="n">
-        <v>218.199378745922</v>
+        <v>218.3869624620415</v>
       </c>
       <c r="U7" t="n">
-        <v>291.2210192262962</v>
+        <v>291.2234139120339</v>
       </c>
       <c r="V7" t="n">
         <v>237.3615500762718</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>364.5563275970632</v>
+        <v>351.371764415772</v>
       </c>
       <c r="C11" t="n">
-        <v>333.5971194742085</v>
+        <v>318.6282693592095</v>
       </c>
       <c r="D11" t="n">
-        <v>319.1317556432476</v>
+        <v>304.1629055282486</v>
       </c>
       <c r="E11" t="n">
-        <v>359.9585549362873</v>
+        <v>344.9897048212883</v>
       </c>
       <c r="F11" t="n">
         <v>399.146417573369</v>
@@ -23281,7 +23281,7 @@
         <v>235.6180226107624</v>
       </c>
       <c r="J11" t="n">
-        <v>62.27902778684214</v>
+        <v>62.27902778684216</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,16 +23302,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>53.23937935806148</v>
+        <v>68.20822947306053</v>
       </c>
       <c r="R11" t="n">
-        <v>165.9043970077148</v>
+        <v>180.8732471227138</v>
       </c>
       <c r="S11" t="n">
-        <v>209.8561796901649</v>
+        <v>224.8250298051639</v>
       </c>
       <c r="T11" t="n">
-        <v>204.1531127343423</v>
+        <v>217.3376759156334</v>
       </c>
       <c r="U11" t="n">
         <v>248.7521737158166</v>
@@ -23336,19 +23336,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>173.0439072660354</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C12" t="n">
-        <v>190.6578644339482</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D12" t="n">
-        <v>172.0989423795122</v>
+        <v>158.9143791982211</v>
       </c>
       <c r="E12" t="n">
-        <v>172.4916951826038</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F12" t="n">
-        <v>159.0154980103249</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G12" t="n">
         <v>160.7697824785144</v>
@@ -23360,7 +23360,7 @@
         <v>108.5091580928627</v>
       </c>
       <c r="J12" t="n">
-        <v>58.29370945070387</v>
+        <v>58.29370945070389</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23381,10 +23381,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.52900457800858</v>
+        <v>22.52900457800862</v>
       </c>
       <c r="R12" t="n">
-        <v>139.1693410830749</v>
+        <v>139.169341083075</v>
       </c>
       <c r="S12" t="n">
         <v>203.4683135038341</v>
@@ -23396,13 +23396,13 @@
         <v>249.633423953496</v>
       </c>
       <c r="V12" t="n">
-        <v>249.2999251801724</v>
+        <v>234.3310750651734</v>
       </c>
       <c r="W12" t="n">
-        <v>283.2492567629311</v>
+        <v>268.2804066479321</v>
       </c>
       <c r="X12" t="n">
-        <v>230.033063710963</v>
+        <v>215.064213595964</v>
       </c>
       <c r="Y12" t="n">
         <v>242.8962664135933</v>
@@ -23439,25 +23439,25 @@
         <v>161.5539700582341</v>
       </c>
       <c r="J13" t="n">
-        <v>117.7476446888457</v>
+        <v>117.7476446888458</v>
       </c>
       <c r="K13" t="n">
-        <v>63.58271276927572</v>
+        <v>63.58271276927573</v>
       </c>
       <c r="L13" t="n">
-        <v>30.45631013468386</v>
+        <v>30.45631013468389</v>
       </c>
       <c r="M13" t="n">
-        <v>25.42579023297466</v>
+        <v>25.42579023297469</v>
       </c>
       <c r="N13" t="n">
-        <v>13.84983270846368</v>
+        <v>13.84983270846371</v>
       </c>
       <c r="O13" t="n">
-        <v>41.67208363857272</v>
+        <v>41.67208363857274</v>
       </c>
       <c r="P13" t="n">
-        <v>64.98837134358662</v>
+        <v>64.98837134358665</v>
       </c>
       <c r="Q13" t="n">
         <v>134.42632090912</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>364.5563275970632</v>
+        <v>349.5874774820642</v>
       </c>
       <c r="C14" t="n">
         <v>333.5971194742085</v>
@@ -23509,10 +23509,10 @@
         <v>399.146417573369</v>
       </c>
       <c r="G14" t="n">
-        <v>421.7223238127198</v>
+        <v>406.7534736977208</v>
       </c>
       <c r="H14" t="n">
-        <v>344.9668206262274</v>
+        <v>331.7822574449363</v>
       </c>
       <c r="I14" t="n">
         <v>235.6180226107624</v>
@@ -23542,22 +23542,22 @@
         <v>68.20822947306053</v>
       </c>
       <c r="R14" t="n">
-        <v>167.6886839414227</v>
+        <v>180.8732471227138</v>
       </c>
       <c r="S14" t="n">
-        <v>209.8561796901649</v>
+        <v>224.8250298051639</v>
       </c>
       <c r="T14" t="n">
-        <v>202.3688258006344</v>
+        <v>217.3376759156334</v>
       </c>
       <c r="U14" t="n">
-        <v>233.7833236008176</v>
+        <v>248.7521737158166</v>
       </c>
       <c r="V14" t="n">
         <v>313.3044420010231</v>
       </c>
       <c r="W14" t="n">
-        <v>325.3917254792934</v>
+        <v>310.4228753642944</v>
       </c>
       <c r="X14" t="n">
         <v>348.8168793035129</v>
@@ -23573,16 +23573,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>174.8281941997433</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C15" t="n">
-        <v>188.8735775002404</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D15" t="n">
-        <v>172.0989423795122</v>
+        <v>157.1300922645132</v>
       </c>
       <c r="E15" t="n">
-        <v>172.4916951826038</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F15" t="n">
         <v>173.9843481253239</v>
@@ -23618,7 +23618,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>7.560154463009585</v>
+        <v>22.52900457800862</v>
       </c>
       <c r="R15" t="n">
         <v>139.169341083075</v>
@@ -23630,16 +23630,16 @@
         <v>229.1070318577418</v>
       </c>
       <c r="U15" t="n">
-        <v>249.633423953496</v>
+        <v>236.4488607722049</v>
       </c>
       <c r="V15" t="n">
         <v>249.2999251801724</v>
       </c>
       <c r="W15" t="n">
-        <v>283.2492567629311</v>
+        <v>268.2804066479321</v>
       </c>
       <c r="X15" t="n">
-        <v>230.033063710963</v>
+        <v>215.064213595964</v>
       </c>
       <c r="Y15" t="n">
         <v>242.8962664135933</v>
@@ -23676,25 +23676,25 @@
         <v>161.5539700582341</v>
       </c>
       <c r="J16" t="n">
-        <v>117.7476446888457</v>
+        <v>117.7476446888458</v>
       </c>
       <c r="K16" t="n">
         <v>63.58271276927573</v>
       </c>
       <c r="L16" t="n">
-        <v>30.45631013468387</v>
+        <v>30.45631013468389</v>
       </c>
       <c r="M16" t="n">
         <v>25.42579023297469</v>
       </c>
       <c r="N16" t="n">
-        <v>13.84983270846368</v>
+        <v>13.84983270846371</v>
       </c>
       <c r="O16" t="n">
-        <v>41.67208363857273</v>
+        <v>41.67208363857274</v>
       </c>
       <c r="P16" t="n">
-        <v>64.98837134358664</v>
+        <v>64.98837134358665</v>
       </c>
       <c r="Q16" t="n">
         <v>134.42632090912</v>
@@ -23734,28 +23734,28 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C17" t="n">
-        <v>333.5971194742085</v>
+        <v>288.2395794250781</v>
       </c>
       <c r="D17" t="n">
-        <v>319.1317556432476</v>
+        <v>273.7742155941173</v>
       </c>
       <c r="E17" t="n">
-        <v>330.719688330082</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F17" t="n">
-        <v>369.9075509671637</v>
+        <v>353.7888775242387</v>
       </c>
       <c r="G17" t="n">
-        <v>392.4834572065145</v>
+        <v>421.7223238127198</v>
       </c>
       <c r="H17" t="n">
-        <v>319.2132269194818</v>
+        <v>305.0158993509534</v>
       </c>
       <c r="I17" t="n">
         <v>235.6180226107624</v>
       </c>
       <c r="J17" t="n">
-        <v>62.27902778684216</v>
+        <v>62.27902778684214</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>68.20822947306053</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R17" t="n">
         <v>180.8732471227138</v>
@@ -23813,16 +23813,16 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C18" t="n">
-        <v>174.6035610090341</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D18" t="n">
         <v>172.0989423795122</v>
       </c>
       <c r="E18" t="n">
-        <v>158.2216786913975</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F18" t="n">
-        <v>144.7454815191186</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G18" t="n">
         <v>160.7697824785144</v>
@@ -23834,7 +23834,7 @@
         <v>108.5091580928627</v>
       </c>
       <c r="J18" t="n">
-        <v>58.29370945070389</v>
+        <v>58.29370945070387</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23855,19 +23855,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R18" t="n">
-        <v>135.9447519543379</v>
+        <v>93.81180103394456</v>
       </c>
       <c r="S18" t="n">
-        <v>203.4683135038341</v>
+        <v>158.1107734547038</v>
       </c>
       <c r="T18" t="n">
-        <v>229.1070318577418</v>
+        <v>183.7494918086114</v>
       </c>
       <c r="U18" t="n">
-        <v>249.633423953496</v>
+        <v>209.682502678222</v>
       </c>
       <c r="V18" t="n">
         <v>249.2999251801724</v>
@@ -23916,22 +23916,22 @@
         <v>117.7476446888457</v>
       </c>
       <c r="K19" t="n">
-        <v>63.58271276927573</v>
+        <v>63.58271276927572</v>
       </c>
       <c r="L19" t="n">
-        <v>30.45631013468387</v>
+        <v>30.45631013468386</v>
       </c>
       <c r="M19" t="n">
-        <v>25.42579023297469</v>
+        <v>25.42579023297466</v>
       </c>
       <c r="N19" t="n">
         <v>13.84983270846368</v>
       </c>
       <c r="O19" t="n">
-        <v>41.67208363857273</v>
+        <v>41.67208363857272</v>
       </c>
       <c r="P19" t="n">
-        <v>64.98837134358664</v>
+        <v>64.98837134358662</v>
       </c>
       <c r="Q19" t="n">
         <v>134.42632090912</v>
@@ -23983,7 +23983,7 @@
         <v>399.146417573369</v>
       </c>
       <c r="G20" t="n">
-        <v>421.7223238127198</v>
+        <v>381.7714025374457</v>
       </c>
       <c r="H20" t="n">
         <v>344.9668206262274</v>
@@ -24025,16 +24025,16 @@
         <v>217.3376759156334</v>
       </c>
       <c r="U20" t="n">
-        <v>219.5133071096113</v>
+        <v>203.3946336666862</v>
       </c>
       <c r="V20" t="n">
-        <v>284.0655753948178</v>
+        <v>267.9469019518928</v>
       </c>
       <c r="W20" t="n">
-        <v>296.1528588730881</v>
+        <v>280.034185430163</v>
       </c>
       <c r="X20" t="n">
-        <v>323.0632855967673</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y20" t="n">
         <v>377.9289763951821</v>
@@ -24068,7 +24068,7 @@
         <v>135.3823959320322</v>
       </c>
       <c r="I21" t="n">
-        <v>108.5091580928627</v>
+        <v>91.08724139559729</v>
       </c>
       <c r="J21" t="n">
         <v>58.29370945070387</v>
@@ -24095,22 +24095,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>139.1693410830749</v>
+        <v>93.81180103394456</v>
       </c>
       <c r="S21" t="n">
-        <v>203.4683135038341</v>
+        <v>158.1107734547038</v>
       </c>
       <c r="T21" t="n">
-        <v>199.8681652515365</v>
+        <v>229.1070318577418</v>
       </c>
       <c r="U21" t="n">
-        <v>220.3945573472907</v>
+        <v>249.633423953496</v>
       </c>
       <c r="V21" t="n">
-        <v>246.0753360514353</v>
+        <v>203.942385131042</v>
       </c>
       <c r="W21" t="n">
-        <v>254.0103901567258</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X21" t="n">
         <v>230.033063710963</v>
@@ -24208,10 +24208,10 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C23" t="n">
-        <v>273.2707293100791</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D23" t="n">
-        <v>258.8053654791182</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E23" t="n">
         <v>359.9585549362873</v>
@@ -24253,19 +24253,19 @@
         <v>68.2082294730605</v>
       </c>
       <c r="R23" t="n">
-        <v>180.8732471227138</v>
+        <v>114.1913298175869</v>
       </c>
       <c r="S23" t="n">
-        <v>224.8250298051639</v>
+        <v>149.1189474878082</v>
       </c>
       <c r="T23" t="n">
-        <v>217.3376759156334</v>
+        <v>141.6315935982777</v>
       </c>
       <c r="U23" t="n">
-        <v>195.6166892592514</v>
+        <v>248.7521737158166</v>
       </c>
       <c r="V23" t="n">
-        <v>313.3044420010231</v>
+        <v>237.5983596836674</v>
       </c>
       <c r="W23" t="n">
         <v>325.3917254792934</v>
@@ -24274,7 +24274,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y23" t="n">
-        <v>317.6025862310528</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="24">
@@ -24299,10 +24299,10 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G24" t="n">
-        <v>130.1633025999579</v>
+        <v>160.7697824785144</v>
       </c>
       <c r="H24" t="n">
-        <v>75.05600576790283</v>
+        <v>135.3823959320322</v>
       </c>
       <c r="I24" t="n">
         <v>108.5091580928627</v>
@@ -24329,7 +24329,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R24" t="n">
         <v>139.1693410830749</v>
@@ -24338,22 +24338,22 @@
         <v>203.4683135038341</v>
       </c>
       <c r="T24" t="n">
-        <v>168.7806416936124</v>
+        <v>229.1070318577418</v>
       </c>
       <c r="U24" t="n">
-        <v>189.3070337893666</v>
+        <v>173.9273416361403</v>
       </c>
       <c r="V24" t="n">
-        <v>249.2999251801724</v>
+        <v>173.5938428628167</v>
       </c>
       <c r="W24" t="n">
         <v>283.2492567629311</v>
       </c>
       <c r="X24" t="n">
-        <v>230.033063710963</v>
+        <v>154.3269813936073</v>
       </c>
       <c r="Y24" t="n">
-        <v>242.8962664135933</v>
+        <v>176.2143491084665</v>
       </c>
     </row>
     <row r="25">
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>304.2299374329338</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C26" t="n">
-        <v>273.2707293100791</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D26" t="n">
         <v>319.1317556432476</v>
@@ -24487,22 +24487,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>68.2082294730605</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>180.8732471227138</v>
+        <v>105.1671648053581</v>
       </c>
       <c r="S26" t="n">
-        <v>224.8250298051639</v>
+        <v>149.1189474878082</v>
       </c>
       <c r="T26" t="n">
-        <v>164.2021914590683</v>
+        <v>217.3376759156334</v>
       </c>
       <c r="U26" t="n">
-        <v>188.4257835516872</v>
+        <v>248.7521737158166</v>
       </c>
       <c r="V26" t="n">
-        <v>313.3044420010231</v>
+        <v>239.1246718516011</v>
       </c>
       <c r="W26" t="n">
         <v>325.3917254792934</v>
@@ -24566,7 +24566,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.52900457800858</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>139.1693410830749</v>
@@ -24575,19 +24575,19 @@
         <v>203.4683135038341</v>
       </c>
       <c r="T27" t="n">
-        <v>175.9715474011766</v>
+        <v>229.1070318577418</v>
       </c>
       <c r="U27" t="n">
-        <v>189.3070337893666</v>
+        <v>173.9273416361403</v>
       </c>
       <c r="V27" t="n">
-        <v>188.973535016043</v>
+        <v>173.5938428628167</v>
       </c>
       <c r="W27" t="n">
-        <v>222.9228665988017</v>
+        <v>207.5431744455754</v>
       </c>
       <c r="X27" t="n">
-        <v>230.033063710963</v>
+        <v>185.8801509838447</v>
       </c>
       <c r="Y27" t="n">
         <v>242.8962664135933</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>364.5563275970632</v>
+        <v>288.8502452797075</v>
       </c>
       <c r="C29" t="n">
-        <v>333.5971194742085</v>
+        <v>266.9152021690816</v>
       </c>
       <c r="D29" t="n">
         <v>319.1317556432476</v>
@@ -24697,7 +24697,7 @@
         <v>421.7223238127198</v>
       </c>
       <c r="H29" t="n">
-        <v>344.9668206262274</v>
+        <v>269.2607383088717</v>
       </c>
       <c r="I29" t="n">
         <v>235.6180226107624</v>
@@ -24724,22 +24724,22 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>15.07274501649535</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R29" t="n">
         <v>180.8732471227138</v>
       </c>
       <c r="S29" t="n">
-        <v>164.4986396410345</v>
+        <v>224.8250298051639</v>
       </c>
       <c r="T29" t="n">
         <v>217.3376759156334</v>
       </c>
       <c r="U29" t="n">
-        <v>188.4257835516872</v>
+        <v>173.0460913984609</v>
       </c>
       <c r="V29" t="n">
-        <v>252.9780518368937</v>
+        <v>313.3044420010231</v>
       </c>
       <c r="W29" t="n">
         <v>325.3917254792934</v>
@@ -24761,10 +24761,10 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C30" t="n">
-        <v>150.7069431586742</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D30" t="n">
-        <v>172.0989423795122</v>
+        <v>105.4170250743853</v>
       </c>
       <c r="E30" t="n">
         <v>187.4605452976028</v>
@@ -24806,13 +24806,13 @@
         <v>22.52900457800858</v>
       </c>
       <c r="R30" t="n">
-        <v>139.1693410830749</v>
+        <v>63.46325876571925</v>
       </c>
       <c r="S30" t="n">
-        <v>203.4683135038341</v>
+        <v>127.7622311864785</v>
       </c>
       <c r="T30" t="n">
-        <v>229.1070318577418</v>
+        <v>153.4009495403861</v>
       </c>
       <c r="U30" t="n">
         <v>249.633423953496</v>
@@ -24821,13 +24821,13 @@
         <v>249.2999251801724</v>
       </c>
       <c r="W30" t="n">
-        <v>222.9228665988017</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X30" t="n">
-        <v>169.7066735468336</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y30" t="n">
-        <v>182.569876249464</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="31">
@@ -24922,22 +24922,22 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D32" t="n">
-        <v>258.8053654791182</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E32" t="n">
-        <v>359.9585549362873</v>
+        <v>284.2524726189316</v>
       </c>
       <c r="F32" t="n">
-        <v>338.8200274092396</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G32" t="n">
         <v>421.7223238127198</v>
       </c>
       <c r="H32" t="n">
-        <v>344.9668206262274</v>
+        <v>269.2607383088717</v>
       </c>
       <c r="I32" t="n">
-        <v>175.291632446633</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J32" t="n">
         <v>62.27902778684214</v>
@@ -24982,10 +24982,10 @@
         <v>325.3917254792934</v>
       </c>
       <c r="X32" t="n">
-        <v>295.6813948469477</v>
+        <v>282.134961998386</v>
       </c>
       <c r="Y32" t="n">
-        <v>377.9289763951821</v>
+        <v>302.2228940778265</v>
       </c>
     </row>
     <row r="33">
@@ -25004,7 +25004,7 @@
         <v>172.0989423795122</v>
       </c>
       <c r="E33" t="n">
-        <v>127.1341551334735</v>
+        <v>143.3076325704845</v>
       </c>
       <c r="F33" t="n">
         <v>173.9843481253239</v>
@@ -25040,22 +25040,22 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.52900457800858</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>139.1693410830749</v>
+        <v>63.46325876571925</v>
       </c>
       <c r="S33" t="n">
-        <v>203.4683135038341</v>
+        <v>127.7622311864785</v>
       </c>
       <c r="T33" t="n">
-        <v>175.9715474011766</v>
+        <v>153.4009495403861</v>
       </c>
       <c r="U33" t="n">
-        <v>189.3070337893666</v>
+        <v>249.633423953496</v>
       </c>
       <c r="V33" t="n">
-        <v>188.973535016043</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W33" t="n">
         <v>283.2492567629311</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>319.1987875479328</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C35" t="n">
-        <v>293.6461981989344</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D35" t="n">
         <v>319.1317556432476</v>
@@ -25171,10 +25171,10 @@
         <v>421.7223238127198</v>
       </c>
       <c r="H35" t="n">
-        <v>344.9668206262274</v>
+        <v>281.0219736798343</v>
       </c>
       <c r="I35" t="n">
-        <v>190.260482561632</v>
+        <v>179.2954014203792</v>
       </c>
       <c r="J35" t="n">
         <v>62.27902778684214</v>
@@ -25198,10 +25198,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>68.2082294730605</v>
+        <v>4.263382526667321</v>
       </c>
       <c r="R35" t="n">
-        <v>180.8732471227138</v>
+        <v>116.9284001763206</v>
       </c>
       <c r="S35" t="n">
         <v>224.8250298051639</v>
@@ -25222,7 +25222,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y35" t="n">
-        <v>332.5714363460518</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="36">
@@ -25241,10 +25241,10 @@
         <v>172.0989423795122</v>
       </c>
       <c r="E36" t="n">
-        <v>142.1030052484725</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F36" t="n">
-        <v>128.6268080761936</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G36" t="n">
         <v>160.7697824785144</v>
@@ -25277,10 +25277,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.52900457800858</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>99.21841980780093</v>
+        <v>75.22449413668176</v>
       </c>
       <c r="S36" t="n">
         <v>203.4683135038341</v>
@@ -25289,13 +25289,13 @@
         <v>229.1070318577418</v>
       </c>
       <c r="U36" t="n">
-        <v>249.633423953496</v>
+        <v>185.6885770071029</v>
       </c>
       <c r="V36" t="n">
-        <v>203.942385131042</v>
+        <v>215.5063085677979</v>
       </c>
       <c r="W36" t="n">
-        <v>283.2492567629311</v>
+        <v>219.3044098165379</v>
       </c>
       <c r="X36" t="n">
         <v>230.033063710963</v>
@@ -25399,7 +25399,7 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E38" t="n">
-        <v>320.0076336610133</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F38" t="n">
         <v>399.146417573369</v>
@@ -25438,25 +25438,25 @@
         <v>68.2082294730605</v>
       </c>
       <c r="R38" t="n">
-        <v>180.8732471227138</v>
+        <v>116.9284001763206</v>
       </c>
       <c r="S38" t="n">
-        <v>224.8250298051639</v>
+        <v>160.8801828587708</v>
       </c>
       <c r="T38" t="n">
-        <v>217.3376759156334</v>
+        <v>153.3928289692402</v>
       </c>
       <c r="U38" t="n">
-        <v>203.3946336666862</v>
+        <v>248.7521737158166</v>
       </c>
       <c r="V38" t="n">
-        <v>267.9469019518928</v>
+        <v>313.3044420010231</v>
       </c>
       <c r="W38" t="n">
-        <v>280.034185430163</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X38" t="n">
-        <v>348.8168793035129</v>
+        <v>292.4942581131298</v>
       </c>
       <c r="Y38" t="n">
         <v>377.9289763951821</v>
@@ -25469,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>148.0618361057604</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C39" t="n">
-        <v>158.484887566109</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D39" t="n">
         <v>172.0989423795122</v>
@@ -25523,22 +25523,22 @@
         <v>203.4683135038341</v>
       </c>
       <c r="T39" t="n">
-        <v>229.1070318577418</v>
+        <v>172.7844106673587</v>
       </c>
       <c r="U39" t="n">
-        <v>249.633423953496</v>
+        <v>185.6885770071029</v>
       </c>
       <c r="V39" t="n">
-        <v>249.2999251801724</v>
+        <v>185.3550782337792</v>
       </c>
       <c r="W39" t="n">
-        <v>283.2492567629311</v>
+        <v>219.3044098165379</v>
       </c>
       <c r="X39" t="n">
-        <v>184.6755236618326</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y39" t="n">
-        <v>197.538726364463</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="40">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>337.1744368472437</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C41" t="n">
         <v>333.5971194742085</v>
@@ -25639,7 +25639,7 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F41" t="n">
-        <v>399.146417573369</v>
+        <v>369.5901544769688</v>
       </c>
       <c r="G41" t="n">
         <v>421.7223238127198</v>
@@ -25651,7 +25651,7 @@
         <v>235.6180226107624</v>
       </c>
       <c r="J41" t="n">
-        <v>62.27902778684214</v>
+        <v>62.27902778684216</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25672,31 +25672,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>37.12070591513643</v>
+        <v>68.20822947306053</v>
       </c>
       <c r="R41" t="n">
         <v>180.8732471227138</v>
       </c>
       <c r="S41" t="n">
-        <v>224.8250298051639</v>
+        <v>191.2688727929021</v>
       </c>
       <c r="T41" t="n">
-        <v>217.3376759156334</v>
+        <v>183.7815189033716</v>
       </c>
       <c r="U41" t="n">
-        <v>248.7521737158166</v>
+        <v>215.1960167035548</v>
       </c>
       <c r="V41" t="n">
         <v>313.3044420010231</v>
       </c>
       <c r="W41" t="n">
-        <v>294.3042019213693</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X41" t="n">
         <v>348.8168793035129</v>
       </c>
       <c r="Y41" t="n">
-        <v>346.8414528372581</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="42">
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>156.9252338231104</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C42" t="n">
         <v>203.8424276152394</v>
@@ -25727,10 +25727,10 @@
         <v>135.3823959320322</v>
       </c>
       <c r="I42" t="n">
-        <v>81.1272673430432</v>
+        <v>74.9530010806009</v>
       </c>
       <c r="J42" t="n">
-        <v>27.2061858927798</v>
+        <v>28.73744635430368</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25751,16 +25751,16 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.52900457800858</v>
+        <v>22.5290045780086</v>
       </c>
       <c r="R42" t="n">
-        <v>139.1693410830749</v>
+        <v>139.169341083075</v>
       </c>
       <c r="S42" t="n">
-        <v>203.4683135038341</v>
+        <v>169.9121564915723</v>
       </c>
       <c r="T42" t="n">
-        <v>229.1070318577418</v>
+        <v>195.5508748454799</v>
       </c>
       <c r="U42" t="n">
         <v>249.633423953496</v>
@@ -25769,7 +25769,7 @@
         <v>249.2999251801724</v>
       </c>
       <c r="W42" t="n">
-        <v>252.161733205007</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X42" t="n">
         <v>230.033063710963</v>
@@ -25812,22 +25812,22 @@
         <v>117.7476446888457</v>
       </c>
       <c r="K43" t="n">
-        <v>63.58271276927572</v>
+        <v>63.58271276927573</v>
       </c>
       <c r="L43" t="n">
-        <v>30.45631013468386</v>
+        <v>30.45631013468387</v>
       </c>
       <c r="M43" t="n">
-        <v>25.42579023297466</v>
+        <v>25.42579023297469</v>
       </c>
       <c r="N43" t="n">
         <v>13.84983270846368</v>
       </c>
       <c r="O43" t="n">
-        <v>41.67208363857272</v>
+        <v>41.67208363857273</v>
       </c>
       <c r="P43" t="n">
-        <v>64.98837134358662</v>
+        <v>64.98837134358664</v>
       </c>
       <c r="Q43" t="n">
         <v>134.42632090912</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>337.1744368472437</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C44" t="n">
-        <v>302.5095959162844</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D44" t="n">
         <v>319.1317556432476</v>
@@ -25888,7 +25888,7 @@
         <v>235.6180226107624</v>
       </c>
       <c r="J44" t="n">
-        <v>62.27902778684214</v>
+        <v>62.27902778684216</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,16 +25909,16 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>68.2082294730605</v>
+        <v>34.6520724607987</v>
       </c>
       <c r="R44" t="n">
-        <v>149.7857235647897</v>
+        <v>147.317090110452</v>
       </c>
       <c r="S44" t="n">
-        <v>224.8250298051639</v>
+        <v>191.2688727929021</v>
       </c>
       <c r="T44" t="n">
-        <v>217.3376759156334</v>
+        <v>187.7814128192332</v>
       </c>
       <c r="U44" t="n">
         <v>248.7521737158166</v>
@@ -25933,7 +25933,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y44" t="n">
-        <v>346.8414528372581</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="45">
@@ -25964,10 +25964,10 @@
         <v>135.3823959320322</v>
       </c>
       <c r="I45" t="n">
-        <v>108.5091580928627</v>
+        <v>101.4818995744711</v>
       </c>
       <c r="J45" t="n">
-        <v>58.29370945070387</v>
+        <v>58.29370945070389</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25988,25 +25988,25 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.52900457800858</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>139.1693410830749</v>
+        <v>105.6131840708131</v>
       </c>
       <c r="S45" t="n">
         <v>203.4683135038341</v>
       </c>
       <c r="T45" t="n">
-        <v>201.7251411079222</v>
+        <v>195.5508748454799</v>
       </c>
       <c r="U45" t="n">
-        <v>218.5459003955719</v>
+        <v>249.633423953496</v>
       </c>
       <c r="V45" t="n">
-        <v>218.2124016222483</v>
+        <v>215.7437681679106</v>
       </c>
       <c r="W45" t="n">
-        <v>252.161733205007</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X45" t="n">
         <v>230.033063710963</v>
@@ -26049,22 +26049,22 @@
         <v>117.7476446888457</v>
       </c>
       <c r="K46" t="n">
-        <v>63.58271276927572</v>
+        <v>63.58271276927573</v>
       </c>
       <c r="L46" t="n">
-        <v>30.45631013468386</v>
+        <v>30.45631013468387</v>
       </c>
       <c r="M46" t="n">
-        <v>25.42579023297466</v>
+        <v>25.42579023297469</v>
       </c>
       <c r="N46" t="n">
         <v>13.84983270846368</v>
       </c>
       <c r="O46" t="n">
-        <v>41.67208363857272</v>
+        <v>41.67208363857273</v>
       </c>
       <c r="P46" t="n">
-        <v>64.98837134358662</v>
+        <v>64.98837134358664</v>
       </c>
       <c r="Q46" t="n">
         <v>134.42632090912</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>397199.629841221</v>
+        <v>384878.5444210399</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>453705.1867692846</v>
+        <v>453705.1867692848</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>463756.7695679248</v>
+        <v>475213.0329980709</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>463756.7695679247</v>
+        <v>475213.0329980706</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>485947.2673567375</v>
+        <v>497026.1244288068</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>485947.2673567374</v>
+        <v>497026.1244288068</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>485947.2673567373</v>
+        <v>497026.1244288068</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>485947.2673567374</v>
+        <v>497026.1244288068</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>475213.032998071</v>
+        <v>488542.0801058213</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>475213.0329980707</v>
+        <v>488542.0801058213</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>465070.6928945465</v>
+        <v>466825.2613002845</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>465070.6928945465</v>
+        <v>466825.2613002848</v>
       </c>
     </row>
   </sheetData>
@@ -26316,7 +26316,7 @@
         <v>101666.2295477194</v>
       </c>
       <c r="C2" t="n">
-        <v>105244.674419149</v>
+        <v>101666.2295477195</v>
       </c>
       <c r="D2" t="n">
         <v>107395.4263844708</v>
@@ -26328,34 +26328,34 @@
         <v>121880.2938528352</v>
       </c>
       <c r="G2" t="n">
-        <v>124413.8867627928</v>
+        <v>127275.7024290945</v>
       </c>
       <c r="H2" t="n">
-        <v>124413.8867627928</v>
+        <v>127275.7024290945</v>
       </c>
       <c r="I2" t="n">
-        <v>129933.3708729222</v>
+        <v>132663.9829237742</v>
       </c>
       <c r="J2" t="n">
-        <v>129933.3708729222</v>
+        <v>132663.9829237742</v>
       </c>
       <c r="K2" t="n">
-        <v>129933.3708729222</v>
+        <v>132663.9829237742</v>
       </c>
       <c r="L2" t="n">
-        <v>129933.3708729222</v>
+        <v>132663.9829237742</v>
       </c>
       <c r="M2" t="n">
-        <v>127275.7024290945</v>
+        <v>130575.8155718601</v>
       </c>
       <c r="N2" t="n">
-        <v>127275.7024290945</v>
+        <v>130575.8155718601</v>
       </c>
       <c r="O2" t="n">
-        <v>124742.1095191369</v>
+        <v>125180.4069956008</v>
       </c>
       <c r="P2" t="n">
-        <v>124742.1095191369</v>
+        <v>125180.4069956008</v>
       </c>
     </row>
     <row r="3">
@@ -26368,25 +26368,25 @@
         <v>300331.6078316385</v>
       </c>
       <c r="C3" t="n">
-        <v>22169.49049151716</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>12531.60992173119</v>
+        <v>33381.84090058045</v>
       </c>
       <c r="E3" t="n">
-        <v>96048.07996408459</v>
+        <v>96048.07996408451</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3911.197469992278</v>
+        <v>8329.084080596393</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>8266.825352046726</v>
+        <v>8070.314708508744</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>799.3504246728749</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>12102.3694127353</v>
       </c>
       <c r="C4" t="n">
-        <v>11302.49030434125</v>
+        <v>12102.3694127353</v>
       </c>
       <c r="D4" t="n">
         <v>10847.6596249392</v>
       </c>
       <c r="E4" t="n">
-        <v>6821.622495069255</v>
+        <v>6821.622495069259</v>
       </c>
       <c r="F4" t="n">
         <v>6821.622495069259</v>
       </c>
       <c r="G4" t="n">
-        <v>7593.70476429917</v>
+        <v>8568.32377313818</v>
       </c>
       <c r="H4" t="n">
-        <v>7593.704764299167</v>
+        <v>8568.323773138178</v>
       </c>
       <c r="I4" t="n">
-        <v>9568.620357283618</v>
+        <v>10646.37746104012</v>
       </c>
       <c r="J4" t="n">
-        <v>9568.62035728362</v>
+        <v>10646.37746104013</v>
       </c>
       <c r="K4" t="n">
-        <v>9568.620357283618</v>
+        <v>10646.37746104012</v>
       </c>
       <c r="L4" t="n">
-        <v>9568.620357283617</v>
+        <v>10646.37746104013</v>
       </c>
       <c r="M4" t="n">
-        <v>8568.32377313818</v>
+        <v>9810.424499309836</v>
       </c>
       <c r="N4" t="n">
-        <v>8568.32377313818</v>
+        <v>9810.424499309836</v>
       </c>
       <c r="O4" t="n">
-        <v>7705.484199024196</v>
+        <v>7854.750644490254</v>
       </c>
       <c r="P4" t="n">
-        <v>7705.484199024196</v>
+        <v>7854.750644490254</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>40422.05903150925</v>
       </c>
       <c r="C5" t="n">
-        <v>40952.80121384036</v>
+        <v>40422.05903150925</v>
       </c>
       <c r="D5" t="n">
         <v>41271.79307559616</v>
@@ -26484,34 +26484,34 @@
         <v>11039.24867339523</v>
       </c>
       <c r="G5" t="n">
-        <v>11906.86567606057</v>
+        <v>12886.88102139042</v>
       </c>
       <c r="H5" t="n">
-        <v>11906.86567606057</v>
+        <v>12886.88102139042</v>
       </c>
       <c r="I5" t="n">
-        <v>13796.98710838236</v>
+        <v>14732.07239129852</v>
       </c>
       <c r="J5" t="n">
-        <v>13796.98710838236</v>
+        <v>14732.07239129852</v>
       </c>
       <c r="K5" t="n">
-        <v>13796.98710838236</v>
+        <v>14732.07239129852</v>
       </c>
       <c r="L5" t="n">
-        <v>13796.98710838236</v>
+        <v>14732.07239129852</v>
       </c>
       <c r="M5" t="n">
-        <v>12886.88102139042</v>
+        <v>14016.989280744</v>
       </c>
       <c r="N5" t="n">
-        <v>12886.88102139042</v>
+        <v>14016.989280744</v>
       </c>
       <c r="O5" t="n">
-        <v>12019.26401872507</v>
+        <v>12169.35693274881</v>
       </c>
       <c r="P5" t="n">
-        <v>12019.26401872507</v>
+        <v>12169.35693274881</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-251189.8067281636</v>
+        <v>-268232.194416079</v>
       </c>
       <c r="C6" t="n">
-        <v>30819.89240945024</v>
+        <v>32099.41341555953</v>
       </c>
       <c r="D6" t="n">
-        <v>42744.36376220428</v>
+        <v>5233.691551223059</v>
       </c>
       <c r="E6" t="n">
-        <v>7971.342720286135</v>
+        <v>-7723.44068062143</v>
       </c>
       <c r="F6" t="n">
-        <v>104019.4226843707</v>
+        <v>88324.63928346308</v>
       </c>
       <c r="G6" t="n">
-        <v>101002.1188524408</v>
+        <v>82156.32405814578</v>
       </c>
       <c r="H6" t="n">
-        <v>104913.3163224331</v>
+        <v>90485.40813874218</v>
       </c>
       <c r="I6" t="n">
-        <v>98300.93805520947</v>
+        <v>84239.34756674843</v>
       </c>
       <c r="J6" t="n">
-        <v>106567.7634072562</v>
+        <v>92309.66227525716</v>
       </c>
       <c r="K6" t="n">
-        <v>106567.7634072562</v>
+        <v>92309.66227525716</v>
       </c>
       <c r="L6" t="n">
-        <v>106567.7634072562</v>
+        <v>92309.66227525713</v>
       </c>
       <c r="M6" t="n">
-        <v>105820.4976345659</v>
+        <v>90833.9694141607</v>
       </c>
       <c r="N6" t="n">
-        <v>105820.4976345659</v>
+        <v>91633.31983883357</v>
       </c>
       <c r="O6" t="n">
-        <v>105017.3613013876</v>
+        <v>89681.52356030511</v>
       </c>
       <c r="P6" t="n">
-        <v>105017.3613013876</v>
+        <v>89681.52356030514</v>
       </c>
     </row>
   </sheetData>
@@ -26740,19 +26740,19 @@
         <v>311.6724326380389</v>
       </c>
       <c r="C3" t="n">
-        <v>336.0184043046035</v>
+        <v>311.6724326380389</v>
       </c>
       <c r="D3" t="n">
         <v>350.6510585135856</v>
       </c>
       <c r="E3" t="n">
-        <v>464.6395681836371</v>
+        <v>464.639568183637</v>
       </c>
       <c r="F3" t="n">
         <v>464.639568183637</v>
       </c>
       <c r="G3" t="n">
-        <v>464.639568183637</v>
+        <v>464.6395681836371</v>
       </c>
       <c r="H3" t="n">
         <v>464.6395681836371</v>
@@ -26776,10 +26776,10 @@
         <v>464.6395681836371</v>
       </c>
       <c r="O3" t="n">
-        <v>464.6395681836371</v>
+        <v>464.639568183637</v>
       </c>
       <c r="P3" t="n">
-        <v>464.6395681836371</v>
+        <v>464.639568183637</v>
       </c>
     </row>
     <row r="4">
@@ -26804,34 +26804,34 @@
         <v>14.96885011499901</v>
       </c>
       <c r="G4" t="n">
-        <v>29.23886660620531</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="H4" t="n">
-        <v>29.23886660620531</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="I4" t="n">
-        <v>60.32639016412938</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="J4" t="n">
-        <v>60.32639016412938</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="K4" t="n">
-        <v>60.32639016412938</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="L4" t="n">
-        <v>60.32639016412938</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="M4" t="n">
-        <v>45.35754004913036</v>
+        <v>63.94484694639318</v>
       </c>
       <c r="N4" t="n">
-        <v>45.35754004913036</v>
+        <v>63.94484694639318</v>
       </c>
       <c r="O4" t="n">
-        <v>31.08752355792407</v>
+        <v>33.55615701226183</v>
       </c>
       <c r="P4" t="n">
-        <v>31.08752355792407</v>
+        <v>33.55615701226183</v>
       </c>
     </row>
   </sheetData>
@@ -26962,13 +26962,13 @@
         <v>311.6724326380389</v>
       </c>
       <c r="C3" t="n">
-        <v>24.34597166656472</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14.6326542089821</v>
+        <v>38.9786258755467</v>
       </c>
       <c r="E3" t="n">
-        <v>113.9885096700515</v>
+        <v>113.9885096700514</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27026,13 +27026,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>14.2700164912063</v>
+        <v>30.38868993413135</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>31.08752355792407</v>
+        <v>30.34854226822532</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>3.207614744036511</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>14.2700164912063</v>
+        <v>30.38868993413135</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.350827755998405</v>
+        <v>1.252954503067492</v>
       </c>
       <c r="H5" t="n">
-        <v>13.83416475611867</v>
+        <v>12.83182030453995</v>
       </c>
       <c r="I5" t="n">
-        <v>52.07778706312856</v>
+        <v>48.30452847950953</v>
       </c>
       <c r="J5" t="n">
-        <v>114.6498172556697</v>
+        <v>106.3429472547246</v>
       </c>
       <c r="K5" t="n">
-        <v>171.8303561670822</v>
+        <v>159.3805113695716</v>
       </c>
       <c r="L5" t="n">
-        <v>213.1707511047185</v>
+        <v>197.7256177428234</v>
       </c>
       <c r="M5" t="n">
-        <v>237.1935342104551</v>
+        <v>220.0078473867499</v>
       </c>
       <c r="N5" t="n">
-        <v>241.0315735721856</v>
+        <v>223.5678043685904</v>
       </c>
       <c r="O5" t="n">
-        <v>227.5992800734765</v>
+        <v>211.108738028713</v>
       </c>
       <c r="P5" t="n">
-        <v>194.2507198472658</v>
+        <v>180.1764237342343</v>
       </c>
       <c r="Q5" t="n">
-        <v>145.8742008355729</v>
+        <v>135.3049905931297</v>
       </c>
       <c r="R5" t="n">
-        <v>84.85393402773488</v>
+        <v>78.70590330331341</v>
       </c>
       <c r="S5" t="n">
-        <v>30.78198748981369</v>
+        <v>28.5517007386505</v>
       </c>
       <c r="T5" t="n">
-        <v>5.913248501883021</v>
+        <v>5.484808337177949</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1080662204798724</v>
+        <v>0.1002363602453993</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7227565677495246</v>
+        <v>0.6703897607686119</v>
       </c>
       <c r="H6" t="n">
-        <v>6.980306851686199</v>
+        <v>6.474553742160016</v>
       </c>
       <c r="I6" t="n">
-        <v>24.88438182821828</v>
+        <v>23.08140185102458</v>
       </c>
       <c r="J6" t="n">
-        <v>68.28464572759873</v>
+        <v>63.33713086279241</v>
       </c>
       <c r="K6" t="n">
-        <v>116.7093357668169</v>
+        <v>108.2532448342894</v>
       </c>
       <c r="L6" t="n">
-        <v>156.9301047650887</v>
+        <v>145.559846959869</v>
       </c>
       <c r="M6" t="n">
-        <v>183.1300303460089</v>
+        <v>169.8614757877312</v>
       </c>
       <c r="N6" t="n">
-        <v>187.9769373288555</v>
+        <v>174.3572036132365</v>
       </c>
       <c r="O6" t="n">
-        <v>171.9621733803002</v>
+        <v>159.5027778614688</v>
       </c>
       <c r="P6" t="n">
-        <v>138.0148045906965</v>
+        <v>128.015041247122</v>
       </c>
       <c r="Q6" t="n">
-        <v>92.25924187623757</v>
+        <v>85.57466490091966</v>
       </c>
       <c r="R6" t="n">
-        <v>44.87430689939593</v>
+        <v>41.62297128701962</v>
       </c>
       <c r="S6" t="n">
-        <v>13.42488624745278</v>
+        <v>12.45219577568013</v>
       </c>
       <c r="T6" t="n">
-        <v>2.913216165621986</v>
+        <v>2.70214118485243</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04754977419404768</v>
+        <v>0.0441045895242508</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6059348274345309</v>
+        <v>0.5620322555767913</v>
       </c>
       <c r="H7" t="n">
-        <v>5.387311465736105</v>
+        <v>4.996977690491839</v>
       </c>
       <c r="I7" t="n">
-        <v>18.22211281048572</v>
+        <v>16.9018427404366</v>
       </c>
       <c r="J7" t="n">
-        <v>42.83959229962133</v>
+        <v>39.73568046927915</v>
       </c>
       <c r="K7" t="n">
-        <v>70.39860995103002</v>
+        <v>65.29792932973993</v>
       </c>
       <c r="L7" t="n">
-        <v>90.08598334422108</v>
+        <v>83.55886825184406</v>
       </c>
       <c r="M7" t="n">
-        <v>94.98303844957832</v>
+        <v>88.10111075373283</v>
       </c>
       <c r="N7" t="n">
-        <v>92.72455409277696</v>
+        <v>86.00626325567396</v>
       </c>
       <c r="O7" t="n">
-        <v>85.64613360865536</v>
+        <v>79.44070463370868</v>
       </c>
       <c r="P7" t="n">
-        <v>73.28506312899087</v>
+        <v>67.97524661994208</v>
       </c>
       <c r="Q7" t="n">
-        <v>50.73877904999513</v>
+        <v>47.06253732834386</v>
       </c>
       <c r="R7" t="n">
-        <v>27.24503324082899</v>
+        <v>25.27101396438917</v>
       </c>
       <c r="S7" t="n">
-        <v>10.5597914926545</v>
+        <v>9.794689399460987</v>
       </c>
       <c r="T7" t="n">
-        <v>2.588994262674813</v>
+        <v>2.40141054655538</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03305099058733808</v>
+        <v>0.0306563048496432</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31755,10 +31755,10 @@
         <v>1.867897761542258</v>
       </c>
       <c r="H11" t="n">
-        <v>19.12960795039466</v>
+        <v>19.12960795039465</v>
       </c>
       <c r="I11" t="n">
-        <v>72.01212845185798</v>
+        <v>72.01212845185796</v>
       </c>
       <c r="J11" t="n">
         <v>158.5354876386974</v>
@@ -31767,31 +31767,31 @@
         <v>237.6035998847812</v>
       </c>
       <c r="L11" t="n">
-        <v>294.7682760045802</v>
+        <v>294.7682760045801</v>
       </c>
       <c r="M11" t="n">
-        <v>327.9865028214073</v>
+        <v>327.9865028214072</v>
       </c>
       <c r="N11" t="n">
-        <v>333.2936673363893</v>
+        <v>333.2936673363892</v>
       </c>
       <c r="O11" t="n">
         <v>314.7197589700534</v>
       </c>
       <c r="P11" t="n">
-        <v>268.6060329819789</v>
+        <v>268.6060329819788</v>
       </c>
       <c r="Q11" t="n">
-        <v>201.7119443967467</v>
+        <v>201.7119443967466</v>
       </c>
       <c r="R11" t="n">
         <v>117.334332763479</v>
       </c>
       <c r="S11" t="n">
-        <v>42.56472024114425</v>
+        <v>42.56472024114424</v>
       </c>
       <c r="T11" t="n">
-        <v>8.176722451151239</v>
+        <v>8.176722451151237</v>
       </c>
       <c r="U11" t="n">
         <v>0.1494318209233806</v>
@@ -31831,22 +31831,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9994134108100874</v>
+        <v>0.9994134108100872</v>
       </c>
       <c r="H12" t="n">
-        <v>9.652229520192162</v>
+        <v>9.652229520192158</v>
       </c>
       <c r="I12" t="n">
-        <v>34.40962839850521</v>
+        <v>34.4096283985052</v>
       </c>
       <c r="J12" t="n">
-        <v>94.42265036078989</v>
+        <v>94.42265036078987</v>
       </c>
       <c r="K12" t="n">
         <v>161.3833488850657</v>
       </c>
       <c r="L12" t="n">
-        <v>216.9998285182166</v>
+        <v>216.9998285182165</v>
       </c>
       <c r="M12" t="n">
         <v>222.8398747259508</v>
@@ -31864,16 +31864,16 @@
         <v>127.5742452114771</v>
       </c>
       <c r="R12" t="n">
-        <v>62.05129931327896</v>
+        <v>62.05129931327894</v>
       </c>
       <c r="S12" t="n">
         <v>18.56366576658209</v>
       </c>
       <c r="T12" t="n">
-        <v>4.028337388309079</v>
+        <v>4.028337388309078</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06575088229013736</v>
+        <v>0.06575088229013734</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,22 +31910,22 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8378746311508208</v>
+        <v>0.8378746311508207</v>
       </c>
       <c r="H13" t="n">
-        <v>7.44946717514094</v>
+        <v>7.449467175140938</v>
       </c>
       <c r="I13" t="n">
         <v>25.1971752713356</v>
       </c>
       <c r="J13" t="n">
-        <v>59.23773642236304</v>
+        <v>59.23773642236302</v>
       </c>
       <c r="K13" t="n">
-        <v>97.34579805552262</v>
+        <v>97.34579805552261</v>
       </c>
       <c r="L13" t="n">
-        <v>124.569106525823</v>
+        <v>124.5691065258229</v>
       </c>
       <c r="M13" t="n">
         <v>131.3406569539418</v>
@@ -31937,13 +31937,13 @@
         <v>118.4297705921179</v>
       </c>
       <c r="P13" t="n">
-        <v>101.3371281166411</v>
+        <v>101.337128116641</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.1605747957292</v>
+        <v>70.16057479572918</v>
       </c>
       <c r="R13" t="n">
-        <v>37.67389023338145</v>
+        <v>37.67389023338144</v>
       </c>
       <c r="S13" t="n">
         <v>14.60186970832839</v>
@@ -31952,7 +31952,7 @@
         <v>3.580009787644415</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04570225260822665</v>
+        <v>0.04570225260822663</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,7 +31995,7 @@
         <v>19.12960795039465</v>
       </c>
       <c r="I14" t="n">
-        <v>72.01212845185798</v>
+        <v>72.01212845185796</v>
       </c>
       <c r="J14" t="n">
         <v>158.5354876386974</v>
@@ -32007,7 +32007,7 @@
         <v>294.7682760045801</v>
       </c>
       <c r="M14" t="n">
-        <v>327.9865028214073</v>
+        <v>327.9865028214072</v>
       </c>
       <c r="N14" t="n">
         <v>333.2936673363892</v>
@@ -32025,10 +32025,10 @@
         <v>117.334332763479</v>
       </c>
       <c r="S14" t="n">
-        <v>42.56472024114425</v>
+        <v>42.56472024114424</v>
       </c>
       <c r="T14" t="n">
-        <v>8.176722451151239</v>
+        <v>8.176722451151237</v>
       </c>
       <c r="U14" t="n">
         <v>0.1494318209233806</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9994134108100873</v>
+        <v>0.9994134108100872</v>
       </c>
       <c r="H15" t="n">
-        <v>9.65222952019216</v>
+        <v>9.652229520192158</v>
       </c>
       <c r="I15" t="n">
         <v>34.4096283985052</v>
@@ -32083,7 +32083,7 @@
         <v>161.3833488850657</v>
       </c>
       <c r="L15" t="n">
-        <v>216.9998285182166</v>
+        <v>216.9998285182165</v>
       </c>
       <c r="M15" t="n">
         <v>222.8398747259508</v>
@@ -32101,7 +32101,7 @@
         <v>127.5742452114771</v>
       </c>
       <c r="R15" t="n">
-        <v>62.05129931327895</v>
+        <v>62.05129931327894</v>
       </c>
       <c r="S15" t="n">
         <v>18.56366576658209</v>
@@ -32147,22 +32147,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8378746311508208</v>
+        <v>0.8378746311508207</v>
       </c>
       <c r="H16" t="n">
-        <v>7.449467175140939</v>
+        <v>7.449467175140938</v>
       </c>
       <c r="I16" t="n">
         <v>25.1971752713356</v>
       </c>
       <c r="J16" t="n">
-        <v>59.23773642236303</v>
+        <v>59.23773642236302</v>
       </c>
       <c r="K16" t="n">
         <v>97.34579805552261</v>
       </c>
       <c r="L16" t="n">
-        <v>124.569106525823</v>
+        <v>124.5691065258229</v>
       </c>
       <c r="M16" t="n">
         <v>131.3406569539418</v>
@@ -32174,10 +32174,10 @@
         <v>118.4297705921179</v>
       </c>
       <c r="P16" t="n">
-        <v>101.3371281166411</v>
+        <v>101.337128116641</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.16057479572919</v>
+        <v>70.16057479572918</v>
       </c>
       <c r="R16" t="n">
         <v>37.67389023338144</v>
@@ -32189,7 +32189,7 @@
         <v>3.580009787644415</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04570225260822664</v>
+        <v>0.04570225260822663</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>1.867897761542258</v>
       </c>
       <c r="H17" t="n">
-        <v>19.12960795039465</v>
+        <v>19.12960795039466</v>
       </c>
       <c r="I17" t="n">
         <v>72.01212845185798</v>
@@ -32241,22 +32241,22 @@
         <v>237.6035998847812</v>
       </c>
       <c r="L17" t="n">
-        <v>294.7682760045801</v>
+        <v>294.7682760045802</v>
       </c>
       <c r="M17" t="n">
         <v>327.9865028214073</v>
       </c>
       <c r="N17" t="n">
-        <v>333.2936673363892</v>
+        <v>333.2936673363893</v>
       </c>
       <c r="O17" t="n">
         <v>314.7197589700534</v>
       </c>
       <c r="P17" t="n">
-        <v>268.6060329819788</v>
+        <v>268.6060329819789</v>
       </c>
       <c r="Q17" t="n">
-        <v>201.7119443967466</v>
+        <v>201.7119443967467</v>
       </c>
       <c r="R17" t="n">
         <v>117.334332763479</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9994134108100873</v>
+        <v>0.9994134108100874</v>
       </c>
       <c r="H18" t="n">
-        <v>9.65222952019216</v>
+        <v>9.652229520192162</v>
       </c>
       <c r="I18" t="n">
-        <v>34.4096283985052</v>
+        <v>34.40962839850521</v>
       </c>
       <c r="J18" t="n">
-        <v>94.42265036078987</v>
+        <v>94.42265036078989</v>
       </c>
       <c r="K18" t="n">
         <v>161.3833488850657</v>
@@ -32323,10 +32323,10 @@
         <v>216.9998285182166</v>
       </c>
       <c r="M18" t="n">
-        <v>237.1098912171571</v>
+        <v>253.2285646600822</v>
       </c>
       <c r="N18" t="n">
-        <v>221.3261205280803</v>
+        <v>237.4447939710053</v>
       </c>
       <c r="O18" t="n">
         <v>237.7858741062053</v>
@@ -32338,16 +32338,16 @@
         <v>127.5742452114771</v>
       </c>
       <c r="R18" t="n">
-        <v>62.05129931327895</v>
+        <v>62.05129931327896</v>
       </c>
       <c r="S18" t="n">
         <v>18.56366576658209</v>
       </c>
       <c r="T18" t="n">
-        <v>4.028337388309078</v>
+        <v>4.028337388309079</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06575088229013734</v>
+        <v>0.06575088229013736</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,16 +32387,16 @@
         <v>0.8378746311508208</v>
       </c>
       <c r="H19" t="n">
-        <v>7.449467175140939</v>
+        <v>7.44946717514094</v>
       </c>
       <c r="I19" t="n">
         <v>25.1971752713356</v>
       </c>
       <c r="J19" t="n">
-        <v>59.23773642236303</v>
+        <v>59.23773642236304</v>
       </c>
       <c r="K19" t="n">
-        <v>97.34579805552261</v>
+        <v>97.34579805552262</v>
       </c>
       <c r="L19" t="n">
         <v>124.569106525823</v>
@@ -32414,10 +32414,10 @@
         <v>101.3371281166411</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.16057479572919</v>
+        <v>70.1605747957292</v>
       </c>
       <c r="R19" t="n">
-        <v>37.67389023338144</v>
+        <v>37.67389023338145</v>
       </c>
       <c r="S19" t="n">
         <v>14.60186970832839</v>
@@ -32426,7 +32426,7 @@
         <v>3.580009787644415</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04570225260822664</v>
+        <v>0.04570225260822665</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32560,10 +32560,10 @@
         <v>216.9998285182166</v>
       </c>
       <c r="M21" t="n">
-        <v>237.1098912171571</v>
+        <v>253.2285646600822</v>
       </c>
       <c r="N21" t="n">
-        <v>221.3261205280803</v>
+        <v>237.4447939710053</v>
       </c>
       <c r="O21" t="n">
         <v>237.7858741062053</v>
@@ -32800,7 +32800,7 @@
         <v>253.2285646600822</v>
       </c>
       <c r="N24" t="n">
-        <v>252.4136440860044</v>
+        <v>259.9307712615235</v>
       </c>
       <c r="O24" t="n">
         <v>237.7858741062053</v>
@@ -33037,7 +33037,7 @@
         <v>253.2285646600822</v>
       </c>
       <c r="N27" t="n">
-        <v>252.4136440860044</v>
+        <v>259.9307712615235</v>
       </c>
       <c r="O27" t="n">
         <v>237.7858741062053</v>
@@ -33274,7 +33274,7 @@
         <v>253.2285646600822</v>
       </c>
       <c r="N30" t="n">
-        <v>252.4136440860044</v>
+        <v>259.9307712615235</v>
       </c>
       <c r="O30" t="n">
         <v>237.7858741062053</v>
@@ -33511,7 +33511,7 @@
         <v>253.2285646600822</v>
       </c>
       <c r="N33" t="n">
-        <v>252.4136440860044</v>
+        <v>259.9307712615235</v>
       </c>
       <c r="O33" t="n">
         <v>237.7858741062053</v>
@@ -33748,7 +33748,7 @@
         <v>253.2285646600822</v>
       </c>
       <c r="N36" t="n">
-        <v>237.4447939710053</v>
+        <v>256.0321008682682</v>
       </c>
       <c r="O36" t="n">
         <v>237.7858741062053</v>
@@ -33985,7 +33985,7 @@
         <v>253.2285646600822</v>
       </c>
       <c r="N39" t="n">
-        <v>237.4447939710053</v>
+        <v>256.0321008682682</v>
       </c>
       <c r="O39" t="n">
         <v>237.7858741062053</v>
@@ -34125,7 +34125,7 @@
         <v>1.867897761542258</v>
       </c>
       <c r="H41" t="n">
-        <v>19.12960795039466</v>
+        <v>19.12960795039465</v>
       </c>
       <c r="I41" t="n">
         <v>72.01212845185798</v>
@@ -34137,22 +34137,22 @@
         <v>237.6035998847812</v>
       </c>
       <c r="L41" t="n">
-        <v>294.7682760045802</v>
+        <v>294.7682760045801</v>
       </c>
       <c r="M41" t="n">
         <v>327.9865028214073</v>
       </c>
       <c r="N41" t="n">
-        <v>333.2936673363893</v>
+        <v>333.2936673363892</v>
       </c>
       <c r="O41" t="n">
         <v>314.7197589700534</v>
       </c>
       <c r="P41" t="n">
-        <v>268.6060329819789</v>
+        <v>268.6060329819788</v>
       </c>
       <c r="Q41" t="n">
-        <v>201.7119443967467</v>
+        <v>201.7119443967466</v>
       </c>
       <c r="R41" t="n">
         <v>117.334332763479</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9994134108100874</v>
+        <v>0.9994134108100873</v>
       </c>
       <c r="H42" t="n">
-        <v>9.652229520192162</v>
+        <v>9.65222952019216</v>
       </c>
       <c r="I42" t="n">
-        <v>34.40962839850521</v>
+        <v>34.4096283985052</v>
       </c>
       <c r="J42" t="n">
-        <v>94.42265036078989</v>
+        <v>94.42265036078987</v>
       </c>
       <c r="K42" t="n">
         <v>161.3833488850657</v>
@@ -34219,10 +34219,10 @@
         <v>216.9998285182166</v>
       </c>
       <c r="M42" t="n">
-        <v>238.9585481688759</v>
+        <v>241.4271816232136</v>
       </c>
       <c r="N42" t="n">
-        <v>223.174777479799</v>
+        <v>225.6434109341368</v>
       </c>
       <c r="O42" t="n">
         <v>237.7858741062053</v>
@@ -34234,16 +34234,16 @@
         <v>127.5742452114771</v>
       </c>
       <c r="R42" t="n">
-        <v>62.05129931327896</v>
+        <v>62.05129931327895</v>
       </c>
       <c r="S42" t="n">
         <v>18.56366576658209</v>
       </c>
       <c r="T42" t="n">
-        <v>4.028337388309079</v>
+        <v>4.028337388309078</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06575088229013736</v>
+        <v>0.06575088229013734</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,16 +34283,16 @@
         <v>0.8378746311508208</v>
       </c>
       <c r="H43" t="n">
-        <v>7.44946717514094</v>
+        <v>7.449467175140939</v>
       </c>
       <c r="I43" t="n">
         <v>25.1971752713356</v>
       </c>
       <c r="J43" t="n">
-        <v>59.23773642236304</v>
+        <v>59.23773642236303</v>
       </c>
       <c r="K43" t="n">
-        <v>97.34579805552262</v>
+        <v>97.34579805552261</v>
       </c>
       <c r="L43" t="n">
         <v>124.569106525823</v>
@@ -34310,10 +34310,10 @@
         <v>101.3371281166411</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.1605747957292</v>
+        <v>70.16057479572919</v>
       </c>
       <c r="R43" t="n">
-        <v>37.67389023338145</v>
+        <v>37.67389023338144</v>
       </c>
       <c r="S43" t="n">
         <v>14.60186970832839</v>
@@ -34322,7 +34322,7 @@
         <v>3.580009787644415</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04570225260822665</v>
+        <v>0.04570225260822664</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,7 +34362,7 @@
         <v>1.867897761542258</v>
       </c>
       <c r="H44" t="n">
-        <v>19.12960795039466</v>
+        <v>19.12960795039465</v>
       </c>
       <c r="I44" t="n">
         <v>72.01212845185798</v>
@@ -34374,22 +34374,22 @@
         <v>237.6035998847812</v>
       </c>
       <c r="L44" t="n">
-        <v>294.7682760045802</v>
+        <v>294.7682760045801</v>
       </c>
       <c r="M44" t="n">
         <v>327.9865028214073</v>
       </c>
       <c r="N44" t="n">
-        <v>333.2936673363893</v>
+        <v>333.2936673363892</v>
       </c>
       <c r="O44" t="n">
         <v>314.7197589700534</v>
       </c>
       <c r="P44" t="n">
-        <v>268.6060329819789</v>
+        <v>268.6060329819788</v>
       </c>
       <c r="Q44" t="n">
-        <v>201.7119443967467</v>
+        <v>201.7119443967466</v>
       </c>
       <c r="R44" t="n">
         <v>117.334332763479</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9994134108100874</v>
+        <v>0.9994134108100873</v>
       </c>
       <c r="H45" t="n">
-        <v>9.652229520192162</v>
+        <v>9.65222952019216</v>
       </c>
       <c r="I45" t="n">
-        <v>34.40962839850521</v>
+        <v>34.4096283985052</v>
       </c>
       <c r="J45" t="n">
-        <v>94.42265036078989</v>
+        <v>94.42265036078987</v>
       </c>
       <c r="K45" t="n">
         <v>161.3833488850657</v>
@@ -34456,10 +34456,10 @@
         <v>216.9998285182166</v>
       </c>
       <c r="M45" t="n">
-        <v>238.9585481688759</v>
+        <v>241.4271816232136</v>
       </c>
       <c r="N45" t="n">
-        <v>223.174777479799</v>
+        <v>225.6434109341368</v>
       </c>
       <c r="O45" t="n">
         <v>237.7858741062053</v>
@@ -34471,16 +34471,16 @@
         <v>127.5742452114771</v>
       </c>
       <c r="R45" t="n">
-        <v>62.05129931327896</v>
+        <v>62.05129931327895</v>
       </c>
       <c r="S45" t="n">
         <v>18.56366576658209</v>
       </c>
       <c r="T45" t="n">
-        <v>4.028337388309079</v>
+        <v>4.028337388309078</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06575088229013736</v>
+        <v>0.06575088229013734</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,16 +34520,16 @@
         <v>0.8378746311508208</v>
       </c>
       <c r="H46" t="n">
-        <v>7.44946717514094</v>
+        <v>7.449467175140939</v>
       </c>
       <c r="I46" t="n">
         <v>25.1971752713356</v>
       </c>
       <c r="J46" t="n">
-        <v>59.23773642236304</v>
+        <v>59.23773642236303</v>
       </c>
       <c r="K46" t="n">
-        <v>97.34579805552262</v>
+        <v>97.34579805552261</v>
       </c>
       <c r="L46" t="n">
         <v>124.569106525823</v>
@@ -34547,10 +34547,10 @@
         <v>101.3371281166411</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.1605747957292</v>
+        <v>70.16057479572919</v>
       </c>
       <c r="R46" t="n">
-        <v>37.67389023338145</v>
+        <v>37.67389023338144</v>
       </c>
       <c r="S46" t="n">
         <v>14.60186970832839</v>
@@ -34559,7 +34559,7 @@
         <v>3.580009787644415</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04570225260822665</v>
+        <v>0.04570225260822664</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35415,7 +35415,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>14.96885011499901</v>
+        <v>0.2686072756679991</v>
       </c>
       <c r="M11" t="n">
         <v>14.96885011499901</v>
@@ -35424,10 +35424,10 @@
         <v>14.96885011499901</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2686072756678872</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="P11" t="n">
-        <v>14.09544081448269</v>
+        <v>14.09544081448257</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35494,13 +35494,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>14.36404809015059</v>
+        <v>14.36404809015056</v>
       </c>
       <c r="M12" t="n">
         <v>14.96885011499901</v>
       </c>
       <c r="N12" t="n">
-        <v>14.96885011499899</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="O12" t="n">
         <v>14.96885011499901</v>
@@ -35652,7 +35652,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>14.96885011499901</v>
+        <v>0.2686072756679991</v>
       </c>
       <c r="M14" t="n">
         <v>14.96885011499901</v>
@@ -35661,10 +35661,10 @@
         <v>14.96885011499901</v>
       </c>
       <c r="O14" t="n">
-        <v>0.2686072756679446</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="P14" t="n">
-        <v>14.09544081448263</v>
+        <v>14.09544081448257</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35889,19 +35889,19 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>29.23886660620531</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="M17" t="n">
-        <v>29.23886660620531</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="N17" t="n">
-        <v>29.23886660620531</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="O17" t="n">
-        <v>13.96205744399721</v>
+        <v>29.42947135387475</v>
       </c>
       <c r="P17" t="n">
-        <v>14.09544081448263</v>
+        <v>14.09544081448269</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35968,19 +35968,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>14.36404809015056</v>
+        <v>14.36404809015059</v>
       </c>
       <c r="M18" t="n">
-        <v>29.23886660620531</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="N18" t="n">
-        <v>29.23886660620531</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="O18" t="n">
         <v>29.23886660620531</v>
       </c>
       <c r="P18" t="n">
-        <v>13.69345016832927</v>
+        <v>45.27953752113186</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36126,16 +36126,16 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>29.23886660620531</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="M20" t="n">
-        <v>13.96205744399715</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="N20" t="n">
-        <v>29.23886660620531</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="O20" t="n">
-        <v>29.23886660620531</v>
+        <v>29.42947135387475</v>
       </c>
       <c r="P20" t="n">
         <v>14.09544081448269</v>
@@ -36208,16 +36208,16 @@
         <v>14.36404809015059</v>
       </c>
       <c r="M21" t="n">
-        <v>29.23886660620531</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="N21" t="n">
-        <v>29.23886660620531</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="O21" t="n">
         <v>29.23886660620531</v>
       </c>
       <c r="P21" t="n">
-        <v>13.69345016832924</v>
+        <v>45.27953752113186</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36366,13 +36366,13 @@
         <v>58.55180989409092</v>
       </c>
       <c r="M23" t="n">
-        <v>60.32639016412938</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="N23" t="n">
-        <v>60.32639016412938</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="O23" t="n">
-        <v>45.56809971406376</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="P23" t="n">
         <v>14.09544081448269</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>28.55120600833618</v>
       </c>
       <c r="L24" t="n">
-        <v>60.32639016412938</v>
+        <v>53.06828533996458</v>
       </c>
       <c r="M24" t="n">
-        <v>60.32639016412938</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="N24" t="n">
-        <v>60.32639016412938</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="O24" t="n">
-        <v>57.88896025850799</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36600,16 +36600,16 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>43.79351944402531</v>
+        <v>58.55180989409092</v>
       </c>
       <c r="M26" t="n">
-        <v>60.32639016412938</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="N26" t="n">
-        <v>60.32639016412938</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="O26" t="n">
-        <v>60.32639016412938</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="P26" t="n">
         <v>14.09544081448269</v>
@@ -36676,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>28.55120600833618</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>14.36404809015059</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="M27" t="n">
-        <v>45.35754004913036</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="N27" t="n">
-        <v>60.32639016412938</v>
+        <v>72.64725070857364</v>
       </c>
       <c r="O27" t="n">
-        <v>60.32639016412938</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="P27" t="n">
-        <v>29.94255627502022</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36837,16 +36837,16 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>43.79351944402531</v>
+        <v>58.55180989409092</v>
       </c>
       <c r="M29" t="n">
-        <v>60.32639016412938</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="N29" t="n">
-        <v>60.32639016412938</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="O29" t="n">
-        <v>60.32639016412938</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="P29" t="n">
         <v>14.09544081448269</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>28.55120600833618</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>14.36404809015059</v>
+        <v>35.15227563715037</v>
       </c>
       <c r="M30" t="n">
-        <v>46.06122971794531</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="N30" t="n">
-        <v>60.32639016412938</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="O30" t="n">
-        <v>29.23886660620531</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="P30" t="n">
-        <v>60.32639016412938</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37077,16 +37077,16 @@
         <v>58.55180989409092</v>
       </c>
       <c r="M32" t="n">
-        <v>60.32639016412938</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="N32" t="n">
-        <v>60.32639016412938</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="O32" t="n">
-        <v>59.66354052854643</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>14.09544081448269</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37153,19 +37153,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>43.61894376730172</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="M33" t="n">
-        <v>45.35754004913036</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="N33" t="n">
-        <v>60.32639016412938</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="O33" t="n">
-        <v>29.23886660620531</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="P33" t="n">
-        <v>60.32639016412938</v>
+        <v>4.803733368925065</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37311,16 +37311,16 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>45.35754004913036</v>
+        <v>58.55180989409092</v>
       </c>
       <c r="M35" t="n">
-        <v>45.35754004913036</v>
+        <v>63.94484694639318</v>
       </c>
       <c r="N35" t="n">
-        <v>29.42947135387475</v>
+        <v>52.65881300456051</v>
       </c>
       <c r="O35" t="n">
-        <v>45.35754004913036</v>
+        <v>63.94484694639318</v>
       </c>
       <c r="P35" t="n">
         <v>14.09544081448269</v>
@@ -37387,19 +37387,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>28.55120600833618</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>14.97370616002124</v>
+        <v>63.94484694639318</v>
       </c>
       <c r="M36" t="n">
-        <v>45.35754004913036</v>
+        <v>61.36121676674094</v>
       </c>
       <c r="N36" t="n">
-        <v>45.35754004913036</v>
+        <v>63.94484694639318</v>
       </c>
       <c r="O36" t="n">
-        <v>45.35754004913036</v>
+        <v>63.94484694639318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37548,16 +37548,16 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>45.35754004913036</v>
+        <v>58.55180989409092</v>
       </c>
       <c r="M38" t="n">
-        <v>45.35754004913036</v>
+        <v>52.65881300456051</v>
       </c>
       <c r="N38" t="n">
-        <v>45.35754004913036</v>
+        <v>63.94484694639318</v>
       </c>
       <c r="O38" t="n">
-        <v>29.42947135387475</v>
+        <v>63.94484694639318</v>
       </c>
       <c r="P38" t="n">
         <v>14.09544081448269</v>
@@ -37627,19 +37627,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>14.36404809015059</v>
+        <v>50.70965705779843</v>
       </c>
       <c r="M39" t="n">
         <v>45.35754004913036</v>
       </c>
       <c r="N39" t="n">
-        <v>45.35754004913036</v>
+        <v>63.94484694639318</v>
       </c>
       <c r="O39" t="n">
         <v>29.23886660620531</v>
       </c>
       <c r="P39" t="n">
-        <v>45.27953752113186</v>
+        <v>63.94484694639318</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37785,19 +37785,19 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>31.08752355792407</v>
+        <v>18.10491187405145</v>
       </c>
       <c r="M41" t="n">
-        <v>31.08752355792407</v>
+        <v>33.55615701226183</v>
       </c>
       <c r="N41" t="n">
-        <v>15.73602118554546</v>
+        <v>33.55615701226183</v>
       </c>
       <c r="O41" t="n">
-        <v>31.08752355792407</v>
+        <v>33.55615701226183</v>
       </c>
       <c r="P41" t="n">
-        <v>14.09544081448269</v>
+        <v>14.09544081448263</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,19 +37861,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>22.15359500444007</v>
       </c>
       <c r="L42" t="n">
-        <v>29.83146200002815</v>
+        <v>14.36404809015056</v>
       </c>
       <c r="M42" t="n">
-        <v>31.08752355792407</v>
+        <v>33.55615701226183</v>
       </c>
       <c r="N42" t="n">
-        <v>31.08752355792407</v>
+        <v>33.55615701226183</v>
       </c>
       <c r="O42" t="n">
-        <v>31.08752355792407</v>
+        <v>29.23886660620528</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38022,19 +38022,19 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>15.73602118554546</v>
+        <v>18.10491187405145</v>
       </c>
       <c r="M44" t="n">
-        <v>31.08752355792407</v>
+        <v>33.55615701226183</v>
       </c>
       <c r="N44" t="n">
-        <v>31.08752355792407</v>
+        <v>33.55615701226183</v>
       </c>
       <c r="O44" t="n">
-        <v>31.08752355792407</v>
+        <v>33.55615701226183</v>
       </c>
       <c r="P44" t="n">
-        <v>14.09544081448269</v>
+        <v>14.09544081448263</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38101,16 +38101,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>31.08752355792407</v>
+        <v>33.55615701226183</v>
       </c>
       <c r="M45" t="n">
-        <v>31.08752355792407</v>
+        <v>33.55615701226183</v>
       </c>
       <c r="N45" t="n">
-        <v>31.08752355792407</v>
+        <v>33.55615701226183</v>
       </c>
       <c r="O45" t="n">
-        <v>29.83146200002815</v>
+        <v>32.20035268853408</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
